--- a/VibrationFootprints.xlsx
+++ b/VibrationFootprints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Biesse_data\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenti\GitHub\Manutenzione-predittiva-BIESSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25CCBD6-B3A5-49B7-82AE-6CC09498FFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B36291-163F-4BB8-88AB-0BFCD42F5567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1512" windowWidth="24612" windowHeight="14484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VibrationFootprints" sheetId="1" r:id="rId1"/>
@@ -1121,24 +1121,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000038568</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000039096</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000039540</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1000039738</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1000039841</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1000039856</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1000039870</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1000040239</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1000040327</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1000040416</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1000040576</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1000040576</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1000040592</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1000040598</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1000040801</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1000040907</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1000040929</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1000040929</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1000040933</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1000041141</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1000041225</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1000041226</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1000041242</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1000041459</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1000041463</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1000041517</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1000041541</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1000041551</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1000041588</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1000041588</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1000041718</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1000041787</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1000041935</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1000041964</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1000041964</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1000041967</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1000041967</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1000042046</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>1000042395</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1000042655</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1000042662</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1000042662</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1000042945</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1000043391</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1000043458</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1000043559</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1000044344</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1000044344</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1000044366</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1000044366</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1000044589</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1000044589</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1000046674</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1000046674</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1000048323</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1000048804</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1000048804</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1000050094</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1000050733</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1000050818</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1000052454</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1000055813</v>
       </c>

--- a/VibrationFootprints.xlsx
+++ b/VibrationFootprints.xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenti\GitHub\Manutenzione-predittiva-BIESSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richi\Documents\GitHub\Manutenzione-predittiva-BIESSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B36291-163F-4BB8-88AB-0BFCD42F5567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84536BFF-C7B3-4E61-A4F0-190E9F9922FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1512" windowWidth="24612" windowHeight="14484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VibrationFootprints" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1119,26 +1132,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL63"/>
+  <dimension ref="A1:BL53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N47" activeCellId="5" sqref="N1:AN1 N31:AN31 N33:AN33 N38:AN38 N40:AN40 N47:AN47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1345,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1000038568</v>
       </c>
@@ -1526,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1000039096</v>
       </c>
@@ -1720,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1000039540</v>
       </c>
@@ -1914,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1000039738</v>
       </c>
@@ -2108,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1000039841</v>
       </c>
@@ -2302,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1000039856</v>
       </c>
@@ -2496,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1000039870</v>
       </c>
@@ -2690,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1000040239</v>
       </c>
@@ -2884,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1000040327</v>
       </c>
@@ -3078,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1000040416</v>
       </c>
@@ -3272,427 +3285,427 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>1000040576</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2020027611</v>
-      </c>
-      <c r="C12" s="3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1000040592</v>
+      </c>
+      <c r="B12">
+        <v>2020031447</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="3">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4">
-        <v>44208.097222222219</v>
-      </c>
-      <c r="F12" s="4">
-        <v>44208.118055555555</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44195.340277777781</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44840.368750000001</v>
+      </c>
+      <c r="G12">
+        <v>15480</v>
+      </c>
+      <c r="H12">
+        <v>444.68</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2.87E-2</v>
+      </c>
+      <c r="J12">
+        <v>740</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1.41E-2</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>192428</v>
+      </c>
+      <c r="O12">
+        <v>703913</v>
+      </c>
+      <c r="P12">
+        <v>396526</v>
+      </c>
+      <c r="Q12">
+        <v>141683</v>
+      </c>
+      <c r="R12">
+        <v>63790</v>
+      </c>
+      <c r="S12">
+        <v>50780</v>
+      </c>
+      <c r="T12">
+        <v>19922</v>
+      </c>
+      <c r="U12">
+        <v>9061</v>
+      </c>
+      <c r="V12">
+        <v>5249</v>
+      </c>
+      <c r="W12">
+        <v>3296</v>
+      </c>
+      <c r="X12">
+        <v>2947</v>
+      </c>
+      <c r="Y12">
+        <v>2089</v>
+      </c>
+      <c r="Z12">
+        <v>1834</v>
+      </c>
+      <c r="AA12">
+        <v>1626</v>
+      </c>
+      <c r="AB12">
+        <v>1354</v>
+      </c>
+      <c r="AC12">
+        <v>1170</v>
+      </c>
+      <c r="AD12">
+        <v>1013</v>
+      </c>
+      <c r="AE12">
+        <v>446</v>
+      </c>
+      <c r="AF12">
+        <v>260</v>
+      </c>
+      <c r="AG12">
+        <v>204</v>
+      </c>
+      <c r="AH12">
+        <v>276</v>
+      </c>
+      <c r="AI12">
+        <v>153</v>
+      </c>
+      <c r="AJ12">
+        <v>196</v>
+      </c>
+      <c r="AK12">
+        <v>169</v>
+      </c>
+      <c r="AL12">
+        <v>80</v>
+      </c>
+      <c r="AM12">
+        <v>60</v>
+      </c>
+      <c r="AN12">
+        <v>45</v>
+      </c>
+      <c r="AO12">
+        <v>40</v>
+      </c>
+      <c r="AP12">
+        <v>40</v>
+      </c>
+      <c r="AQ12">
+        <v>40</v>
+      </c>
+      <c r="AR12">
+        <v>34</v>
+      </c>
+      <c r="AS12">
+        <v>23</v>
+      </c>
+      <c r="AT12">
+        <v>37</v>
+      </c>
+      <c r="AU12">
+        <v>20</v>
+      </c>
+      <c r="AV12">
+        <v>26</v>
+      </c>
+      <c r="AW12">
+        <v>10</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>9</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1000040598</v>
+      </c>
+      <c r="B13">
+        <v>2020030382</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="H12" s="3">
-        <v>0.09</v>
-      </c>
-      <c r="I12" s="5">
-        <v>8.8599999999999998E-2</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>259</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44235.417361111111</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44839.379861111112</v>
+      </c>
+      <c r="G13">
+        <v>14494</v>
+      </c>
+      <c r="H13">
+        <v>223.08</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1.54E-2</v>
+      </c>
+      <c r="J13">
+        <v>1801</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>106887</v>
+      </c>
+      <c r="O13">
+        <v>444725</v>
+      </c>
+      <c r="P13">
+        <v>175585</v>
+      </c>
+      <c r="Q13">
+        <v>54003</v>
+      </c>
+      <c r="R13">
+        <v>11577</v>
+      </c>
+      <c r="S13">
+        <v>3486</v>
+      </c>
+      <c r="T13">
+        <v>2205</v>
+      </c>
+      <c r="U13">
+        <v>2114</v>
+      </c>
+      <c r="V13">
+        <v>844</v>
+      </c>
+      <c r="W13">
+        <v>793</v>
+      </c>
+      <c r="X13">
+        <v>363</v>
+      </c>
+      <c r="Y13">
+        <v>150</v>
+      </c>
+      <c r="Z13">
+        <v>100</v>
+      </c>
+      <c r="AA13">
+        <v>20</v>
+      </c>
+      <c r="AB13">
+        <v>100</v>
+      </c>
+      <c r="AC13">
         <v>60</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="3">
+      <c r="AD13">
+        <v>40</v>
+      </c>
+      <c r="AE13">
+        <v>10</v>
+      </c>
+      <c r="AF13">
+        <v>10</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>1000040576</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2021026199</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4">
-        <v>44683.892361111109</v>
-      </c>
-      <c r="F13" s="4">
-        <v>44966.171527777777</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6776</v>
-      </c>
-      <c r="H13" s="3">
-        <v>321.04000000000002</v>
-      </c>
-      <c r="I13" s="5">
-        <v>4.7399999999999998E-2</v>
-      </c>
-      <c r="J13" s="3">
-        <v>29208</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0.58189999999999997</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3">
-        <v>25861</v>
-      </c>
-      <c r="O13" s="3">
-        <v>422810</v>
-      </c>
-      <c r="P13" s="3">
-        <v>576171</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>127564</v>
-      </c>
-      <c r="R13" s="3">
-        <v>2588</v>
-      </c>
-      <c r="S13" s="3">
-        <v>388</v>
-      </c>
-      <c r="T13" s="3">
-        <v>247</v>
-      </c>
-      <c r="U13" s="3">
-        <v>50</v>
-      </c>
-      <c r="V13" s="3">
-        <v>20</v>
-      </c>
-      <c r="W13" s="3">
-        <v>30</v>
-      </c>
-      <c r="X13" s="3">
-        <v>10</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>1000040592</v>
+        <v>1000040929</v>
       </c>
       <c r="B14">
-        <v>2020031447</v>
+        <v>2020021129</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" s="1">
-        <v>44195.340277777781</v>
+        <v>44121.441666666666</v>
       </c>
       <c r="F14" s="1">
-        <v>44840.368750000001</v>
+        <v>44840.51458333333</v>
       </c>
       <c r="G14">
-        <v>15480</v>
+        <v>17258</v>
       </c>
       <c r="H14">
-        <v>444.68</v>
+        <v>753.79</v>
       </c>
       <c r="I14" s="2">
-        <v>2.87E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="J14">
-        <v>740</v>
+        <v>8991</v>
       </c>
       <c r="K14" s="2">
-        <v>1.41E-2</v>
+        <v>6.4699999999999994E-2</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -3701,112 +3714,112 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>192428</v>
+        <v>541523</v>
       </c>
       <c r="O14">
-        <v>703913</v>
+        <v>1230457</v>
       </c>
       <c r="P14">
-        <v>396526</v>
+        <v>412294</v>
       </c>
       <c r="Q14">
-        <v>141683</v>
+        <v>258846</v>
       </c>
       <c r="R14">
-        <v>63790</v>
+        <v>122326</v>
       </c>
       <c r="S14">
-        <v>50780</v>
+        <v>79150</v>
       </c>
       <c r="T14">
-        <v>19922</v>
+        <v>37331</v>
       </c>
       <c r="U14">
-        <v>9061</v>
+        <v>14159</v>
       </c>
       <c r="V14">
-        <v>5249</v>
+        <v>5796</v>
       </c>
       <c r="W14">
-        <v>3296</v>
+        <v>4408</v>
       </c>
       <c r="X14">
-        <v>2947</v>
+        <v>3036</v>
       </c>
       <c r="Y14">
-        <v>2089</v>
+        <v>2265</v>
       </c>
       <c r="Z14">
-        <v>1834</v>
+        <v>476</v>
       </c>
       <c r="AA14">
-        <v>1626</v>
+        <v>257</v>
       </c>
       <c r="AB14">
-        <v>1354</v>
+        <v>278</v>
       </c>
       <c r="AC14">
-        <v>1170</v>
+        <v>80</v>
       </c>
       <c r="AD14">
-        <v>1013</v>
+        <v>72</v>
       </c>
       <c r="AE14">
-        <v>446</v>
+        <v>60</v>
       </c>
       <c r="AF14">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="AG14">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="AH14">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="AI14">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="AJ14">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="AK14">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="AL14">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM14">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN14">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AO14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AP14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ14">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AU14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AV14">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AW14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX14">
         <v>0</v>
@@ -3815,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="AZ14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BA14">
         <v>0</v>
@@ -3854,12 +3867,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>1000040598</v>
+        <v>1000040929</v>
       </c>
       <c r="B15">
-        <v>2020030382</v>
+        <v>2020023678</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3868,25 +3881,25 @@
         <v>5</v>
       </c>
       <c r="E15" s="1">
-        <v>44235.417361111111</v>
+        <v>44123.263194444444</v>
       </c>
       <c r="F15" s="1">
-        <v>44839.379861111112</v>
+        <v>44840.525000000001</v>
       </c>
       <c r="G15">
-        <v>14494</v>
+        <v>17214</v>
       </c>
       <c r="H15">
-        <v>223.08</v>
+        <v>369.66</v>
       </c>
       <c r="I15" s="2">
-        <v>1.54E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="J15">
-        <v>1801</v>
+        <v>8991</v>
       </c>
       <c r="K15" s="2">
-        <v>2.0400000000000001E-2</v>
+        <v>6.4699999999999994E-2</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -3895,61 +3908,61 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>106887</v>
+        <v>94893</v>
       </c>
       <c r="O15">
-        <v>444725</v>
+        <v>729031</v>
       </c>
       <c r="P15">
-        <v>175585</v>
+        <v>344161</v>
       </c>
       <c r="Q15">
-        <v>54003</v>
+        <v>103356</v>
       </c>
       <c r="R15">
-        <v>11577</v>
+        <v>31066</v>
       </c>
       <c r="S15">
-        <v>3486</v>
+        <v>12341</v>
       </c>
       <c r="T15">
-        <v>2205</v>
+        <v>7111</v>
       </c>
       <c r="U15">
-        <v>2114</v>
+        <v>4709</v>
       </c>
       <c r="V15">
-        <v>844</v>
+        <v>2302</v>
       </c>
       <c r="W15">
-        <v>793</v>
+        <v>1082</v>
       </c>
       <c r="X15">
-        <v>363</v>
+        <v>543</v>
       </c>
       <c r="Y15">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="Z15">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AA15">
+        <v>10</v>
+      </c>
+      <c r="AB15">
         <v>20</v>
       </c>
-      <c r="AB15">
-        <v>100</v>
-      </c>
       <c r="AC15">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AD15">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AE15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -4048,12 +4061,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>1000040801</v>
+        <v>1000040933</v>
       </c>
       <c r="B16">
-        <v>2020024190</v>
+        <v>2020024456</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4062,94 +4075,94 @@
         <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>44167.488194444442</v>
+        <v>44133.318749999999</v>
       </c>
       <c r="F16" s="1">
-        <v>44838.542361111111</v>
+        <v>44840.602777777778</v>
       </c>
       <c r="G16">
-        <v>16104</v>
+        <v>16974</v>
       </c>
       <c r="H16">
-        <v>976.81</v>
+        <v>442.97</v>
       </c>
       <c r="I16" s="2">
-        <v>6.0699999999999997E-2</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="J16">
-        <v>5006</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>0.21829999999999999</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.38</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>6.4999999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>208681</v>
+        <v>202216</v>
       </c>
       <c r="O16">
-        <v>1098679</v>
+        <v>904938</v>
       </c>
       <c r="P16">
-        <v>846521</v>
+        <v>262918</v>
       </c>
       <c r="Q16">
-        <v>647271</v>
+        <v>115018</v>
       </c>
       <c r="R16">
-        <v>398484</v>
+        <v>58353</v>
       </c>
       <c r="S16">
-        <v>173200</v>
+        <v>29430</v>
       </c>
       <c r="T16">
-        <v>89108</v>
+        <v>10493</v>
       </c>
       <c r="U16">
-        <v>35716</v>
+        <v>4493</v>
       </c>
       <c r="V16">
-        <v>8364</v>
+        <v>2392</v>
       </c>
       <c r="W16">
-        <v>1444</v>
+        <v>1821</v>
       </c>
       <c r="X16">
-        <v>899</v>
+        <v>750</v>
       </c>
       <c r="Y16">
-        <v>1151</v>
+        <v>589</v>
       </c>
       <c r="Z16">
-        <v>125</v>
+        <v>527</v>
       </c>
       <c r="AA16">
+        <v>265</v>
+      </c>
+      <c r="AB16">
+        <v>210</v>
+      </c>
+      <c r="AC16">
+        <v>90</v>
+      </c>
+      <c r="AD16">
         <v>20</v>
       </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
       <c r="AE16">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -4242,12 +4255,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1000040907</v>
+        <v>1000041242</v>
       </c>
       <c r="B17">
-        <v>2020033840</v>
+        <v>2020028086</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4256,25 +4269,25 @@
         <v>5</v>
       </c>
       <c r="E17" s="1">
-        <v>44236.369444444441</v>
+        <v>44166.273611111108</v>
       </c>
       <c r="F17" s="1">
-        <v>44840.34652777778</v>
+        <v>44840.559027777781</v>
       </c>
       <c r="G17">
-        <v>14494</v>
+        <v>16182</v>
       </c>
       <c r="H17">
-        <v>568.17999999999995</v>
+        <v>597.96</v>
       </c>
       <c r="I17" s="2">
-        <v>3.9199999999999999E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J17">
-        <v>7630</v>
+        <v>23</v>
       </c>
       <c r="K17" s="2">
-        <v>0.3135</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -4283,76 +4296,76 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>339573</v>
+        <v>299075</v>
       </c>
       <c r="O17">
-        <v>1048695</v>
+        <v>1398818</v>
       </c>
       <c r="P17">
-        <v>414098</v>
+        <v>332854</v>
       </c>
       <c r="Q17">
-        <v>127358</v>
+        <v>64790</v>
       </c>
       <c r="R17">
-        <v>40532</v>
+        <v>28416</v>
       </c>
       <c r="S17">
-        <v>30293</v>
+        <v>14618</v>
       </c>
       <c r="T17">
-        <v>18018</v>
+        <v>7468</v>
       </c>
       <c r="U17">
-        <v>9832</v>
+        <v>3847</v>
       </c>
       <c r="V17">
-        <v>6497</v>
+        <v>1620</v>
       </c>
       <c r="W17">
-        <v>4094</v>
+        <v>814</v>
       </c>
       <c r="X17">
-        <v>2294</v>
+        <v>244</v>
       </c>
       <c r="Y17">
-        <v>1367</v>
+        <v>50</v>
       </c>
       <c r="Z17">
-        <v>737</v>
+        <v>20</v>
       </c>
       <c r="AA17">
-        <v>673</v>
+        <v>10</v>
       </c>
       <c r="AB17">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -4436,129 +4449,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1000040929</v>
+        <v>1000041459</v>
       </c>
       <c r="B18">
-        <v>2020021129</v>
+        <v>2020027301</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18" s="1">
-        <v>44121.441666666666</v>
+        <v>44244.888888888891</v>
       </c>
       <c r="F18" s="1">
-        <v>44840.51458333333</v>
+        <v>44838.563888888886</v>
       </c>
       <c r="G18">
-        <v>17258</v>
+        <v>14247</v>
       </c>
       <c r="H18">
-        <v>753.79</v>
+        <v>890.69</v>
       </c>
       <c r="I18" s="2">
-        <v>4.3700000000000003E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="J18">
-        <v>8991</v>
+        <v>2143</v>
       </c>
       <c r="K18" s="2">
-        <v>6.4699999999999994E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="M18" s="2">
-        <v>0</v>
+        <v>2.8E-3</v>
       </c>
       <c r="N18">
-        <v>541523</v>
+        <v>26717</v>
       </c>
       <c r="O18">
-        <v>1230457</v>
+        <v>1842791</v>
       </c>
       <c r="P18">
-        <v>412294</v>
+        <v>1231930</v>
       </c>
       <c r="Q18">
-        <v>258846</v>
+        <v>92996</v>
       </c>
       <c r="R18">
-        <v>122326</v>
+        <v>7318</v>
       </c>
       <c r="S18">
-        <v>79150</v>
+        <v>440</v>
       </c>
       <c r="T18">
-        <v>37331</v>
+        <v>10</v>
       </c>
       <c r="U18">
-        <v>14159</v>
+        <v>12</v>
       </c>
       <c r="V18">
-        <v>5796</v>
+        <v>70</v>
       </c>
       <c r="W18">
-        <v>4408</v>
+        <v>20</v>
       </c>
       <c r="X18">
-        <v>3036</v>
+        <v>10</v>
       </c>
       <c r="Y18">
-        <v>2265</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="AK18">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AL18">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AP18">
         <v>0</v>
@@ -4630,12 +4643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>1000040929</v>
+        <v>1000041463</v>
       </c>
       <c r="B19">
-        <v>2020023678</v>
+        <v>2020031309</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4644,25 +4657,25 @@
         <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>44123.263194444444</v>
+        <v>44211.554861111108</v>
       </c>
       <c r="F19" s="1">
-        <v>44840.525000000001</v>
+        <v>44838.506249999999</v>
       </c>
       <c r="G19">
-        <v>17214</v>
+        <v>15046</v>
       </c>
       <c r="H19">
-        <v>369.66</v>
+        <v>660.33</v>
       </c>
       <c r="I19" s="2">
-        <v>2.1499999999999998E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="J19">
-        <v>8991</v>
+        <v>4438</v>
       </c>
       <c r="K19" s="2">
-        <v>6.4699999999999994E-2</v>
+        <v>0.13120000000000001</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -4671,55 +4684,55 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>94893</v>
+        <v>339464</v>
       </c>
       <c r="O19">
-        <v>729031</v>
+        <v>1640427</v>
       </c>
       <c r="P19">
-        <v>344161</v>
+        <v>315723</v>
       </c>
       <c r="Q19">
-        <v>103356</v>
+        <v>52731</v>
       </c>
       <c r="R19">
-        <v>31066</v>
+        <v>12368</v>
       </c>
       <c r="S19">
-        <v>12341</v>
+        <v>6120</v>
       </c>
       <c r="T19">
-        <v>7111</v>
+        <v>4193</v>
       </c>
       <c r="U19">
-        <v>4709</v>
+        <v>2415</v>
       </c>
       <c r="V19">
-        <v>2302</v>
+        <v>1781</v>
       </c>
       <c r="W19">
-        <v>1082</v>
+        <v>1030</v>
       </c>
       <c r="X19">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="Y19">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="Z19">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AA19">
         <v>10</v>
       </c>
       <c r="AB19">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="AC19">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -4731,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -4824,12 +4837,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>1000040933</v>
+        <v>1000041517</v>
       </c>
       <c r="B20">
-        <v>2020024456</v>
+        <v>2020026080</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4838,25 +4851,25 @@
         <v>5</v>
       </c>
       <c r="E20" s="1">
-        <v>44133.318749999999</v>
+        <v>44265.802083333336</v>
       </c>
       <c r="F20" s="1">
-        <v>44840.602777777778</v>
+        <v>44833.995833333334</v>
       </c>
       <c r="G20">
-        <v>16974</v>
+        <v>13636</v>
       </c>
       <c r="H20">
-        <v>442.97</v>
+        <v>658.31</v>
       </c>
       <c r="I20" s="2">
-        <v>2.6100000000000002E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -4865,80 +4878,80 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>202216</v>
+        <v>1407090</v>
       </c>
       <c r="O20">
-        <v>904938</v>
+        <v>272589</v>
       </c>
       <c r="P20">
-        <v>262918</v>
+        <v>232195</v>
       </c>
       <c r="Q20">
-        <v>115018</v>
+        <v>202835</v>
       </c>
       <c r="R20">
-        <v>58353</v>
+        <v>118385</v>
       </c>
       <c r="S20">
-        <v>29430</v>
+        <v>63990</v>
       </c>
       <c r="T20">
-        <v>10493</v>
+        <v>28583</v>
       </c>
       <c r="U20">
-        <v>4493</v>
+        <v>11879</v>
       </c>
       <c r="V20">
-        <v>2392</v>
+        <v>5880</v>
       </c>
       <c r="W20">
-        <v>1821</v>
+        <v>3270</v>
       </c>
       <c r="X20">
-        <v>750</v>
+        <v>3187</v>
       </c>
       <c r="Y20">
-        <v>589</v>
+        <v>2950</v>
       </c>
       <c r="Z20">
-        <v>527</v>
+        <v>3531</v>
       </c>
       <c r="AA20">
-        <v>265</v>
+        <v>3950</v>
       </c>
       <c r="AB20">
-        <v>210</v>
+        <v>3519</v>
       </c>
       <c r="AC20">
-        <v>90</v>
+        <v>2661</v>
       </c>
       <c r="AD20">
-        <v>20</v>
+        <v>1582</v>
       </c>
       <c r="AE20">
-        <v>90</v>
+        <v>758</v>
       </c>
       <c r="AF20">
+        <v>389</v>
+      </c>
+      <c r="AG20">
+        <v>260</v>
+      </c>
+      <c r="AH20">
+        <v>130</v>
+      </c>
+      <c r="AI20">
+        <v>141</v>
+      </c>
+      <c r="AJ20">
+        <v>112</v>
+      </c>
+      <c r="AK20">
+        <v>40</v>
+      </c>
+      <c r="AL20">
         <v>10</v>
       </c>
-      <c r="AG20">
-        <v>50</v>
-      </c>
-      <c r="AH20">
-        <v>20</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
       <c r="AM20">
         <v>0</v>
       </c>
@@ -4946,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP20">
         <v>0</v>
@@ -5018,12 +5031,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>1000041141</v>
+        <v>1000041541</v>
       </c>
       <c r="B21">
-        <v>2020021130</v>
+        <v>2020033996</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -5032,115 +5045,115 @@
         <v>5</v>
       </c>
       <c r="E21" s="1">
-        <v>44225.490972222222</v>
+        <v>44244.601388888892</v>
       </c>
       <c r="F21" s="1">
-        <v>44841.288888888892</v>
+        <v>44837.61041666667</v>
       </c>
       <c r="G21">
-        <v>14778</v>
+        <v>14231</v>
       </c>
       <c r="H21">
-        <v>1153.3599999999999</v>
+        <v>1773.79</v>
       </c>
       <c r="I21" s="2">
-        <v>7.8E-2</v>
+        <v>0.1246</v>
       </c>
       <c r="J21">
-        <v>32170</v>
+        <v>550</v>
       </c>
       <c r="K21" s="2">
-        <v>0.24829999999999999</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.82</v>
       </c>
       <c r="M21" s="2">
-        <v>0</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="N21">
-        <v>348129</v>
+        <v>1770870</v>
       </c>
       <c r="O21">
-        <v>1314940</v>
+        <v>2441365</v>
       </c>
       <c r="P21">
-        <v>572274</v>
+        <v>750251</v>
       </c>
       <c r="Q21">
-        <v>462416</v>
+        <v>516600</v>
       </c>
       <c r="R21">
-        <v>421282</v>
+        <v>486828</v>
       </c>
       <c r="S21">
-        <v>341522</v>
+        <v>168099</v>
       </c>
       <c r="T21">
-        <v>245688</v>
+        <v>60176</v>
       </c>
       <c r="U21">
-        <v>177964</v>
+        <v>38702</v>
       </c>
       <c r="V21">
-        <v>121594</v>
+        <v>29434</v>
       </c>
       <c r="W21">
-        <v>78882</v>
+        <v>18840</v>
       </c>
       <c r="X21">
-        <v>40507</v>
+        <v>12582</v>
       </c>
       <c r="Y21">
-        <v>18349</v>
+        <v>9020</v>
       </c>
       <c r="Z21">
-        <v>6004</v>
+        <v>7302</v>
       </c>
       <c r="AA21">
-        <v>1837</v>
+        <v>6744</v>
       </c>
       <c r="AB21">
-        <v>436</v>
+        <v>6353</v>
       </c>
       <c r="AC21">
-        <v>221</v>
+        <v>6418</v>
       </c>
       <c r="AD21">
-        <v>40</v>
+        <v>5273</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>3938</v>
       </c>
       <c r="AF21">
-        <v>20</v>
+        <v>1580</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1387</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>2610</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP21">
         <v>0</v>
@@ -5212,12 +5225,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>1000041225</v>
+        <v>1000041551</v>
       </c>
       <c r="B22">
-        <v>2020026085</v>
+        <v>2020035604</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -5226,136 +5239,136 @@
         <v>5</v>
       </c>
       <c r="E22" s="1">
-        <v>44167.411805555559</v>
+        <v>44208.668055555558</v>
       </c>
       <c r="F22" s="1">
-        <v>44837.484722222223</v>
+        <v>44818.630555555559</v>
       </c>
       <c r="G22">
-        <v>16081</v>
+        <v>14638</v>
       </c>
       <c r="H22">
-        <v>1821.5</v>
+        <v>354.14</v>
       </c>
       <c r="I22" s="2">
-        <v>0.1133</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="J22">
-        <v>44034</v>
+        <v>383</v>
       </c>
       <c r="K22" s="2">
-        <v>0.43859999999999999</v>
+        <v>0.1396</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.16</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>2.87E-2</v>
       </c>
       <c r="N22">
-        <v>473864</v>
+        <v>246679</v>
       </c>
       <c r="O22">
-        <v>3190099</v>
+        <v>382888</v>
       </c>
       <c r="P22">
-        <v>2280203</v>
+        <v>224879</v>
       </c>
       <c r="Q22">
-        <v>516641</v>
+        <v>80444</v>
       </c>
       <c r="R22">
-        <v>55991</v>
+        <v>56797</v>
       </c>
       <c r="S22">
-        <v>16615</v>
+        <v>49153</v>
       </c>
       <c r="T22">
-        <v>9686</v>
+        <v>41708</v>
       </c>
       <c r="U22">
-        <v>5588</v>
+        <v>45087</v>
       </c>
       <c r="V22">
-        <v>3329</v>
+        <v>36624</v>
       </c>
       <c r="W22">
-        <v>2353</v>
+        <v>32188</v>
       </c>
       <c r="X22">
-        <v>1277</v>
+        <v>21497</v>
       </c>
       <c r="Y22">
-        <v>516</v>
+        <v>11007</v>
       </c>
       <c r="Z22">
-        <v>276</v>
+        <v>5059</v>
       </c>
       <c r="AA22">
-        <v>139</v>
+        <v>2438</v>
       </c>
       <c r="AB22">
-        <v>78</v>
+        <v>1150</v>
       </c>
       <c r="AC22">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="AD22">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="AE22">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="AF22">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="AG22">
-        <v>73</v>
+        <v>412</v>
       </c>
       <c r="AH22">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="AI22">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="AJ22">
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="AK22">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="AL22">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AM22">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AO22">
         <v>20</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS22">
         <v>0</v>
       </c>
       <c r="AT22">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW22">
         <v>0</v>
@@ -5364,10 +5377,10 @@
         <v>0</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BA22">
         <v>0</v>
@@ -5382,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="BE22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BF22">
         <v>0</v>
@@ -5406,206 +5419,206 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>1000041226</v>
+        <v>1000041588</v>
       </c>
       <c r="B23">
-        <v>2020026078</v>
+        <v>2020033523</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" s="1">
-        <v>44175.323611111111</v>
+        <v>44379.373611111114</v>
       </c>
       <c r="F23" s="1">
-        <v>44834.540277777778</v>
+        <v>44837.486111111109</v>
       </c>
       <c r="G23">
-        <v>15820</v>
+        <v>10995</v>
       </c>
       <c r="H23">
-        <v>540.46</v>
+        <v>424.29</v>
       </c>
       <c r="I23" s="2">
-        <v>3.4200000000000001E-2</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="J23">
-        <v>3494</v>
+        <v>12851</v>
       </c>
       <c r="K23" s="2">
-        <v>0.16520000000000001</v>
+        <v>0.1203</v>
       </c>
       <c r="L23">
-        <v>7.76</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>1.44E-2</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>73138</v>
+        <v>291572</v>
       </c>
       <c r="O23">
-        <v>676950</v>
+        <v>879538</v>
       </c>
       <c r="P23">
-        <v>458762</v>
+        <v>196559</v>
       </c>
       <c r="Q23">
-        <v>158341</v>
+        <v>56827</v>
       </c>
       <c r="R23">
-        <v>125378</v>
+        <v>27955</v>
       </c>
       <c r="S23">
-        <v>129754</v>
+        <v>14256</v>
       </c>
       <c r="T23">
-        <v>96228</v>
+        <v>13450</v>
       </c>
       <c r="U23">
-        <v>58771</v>
+        <v>15937</v>
       </c>
       <c r="V23">
-        <v>37551</v>
+        <v>14160</v>
       </c>
       <c r="W23">
-        <v>23668</v>
+        <v>8545</v>
       </c>
       <c r="X23">
-        <v>20291</v>
+        <v>4771</v>
       </c>
       <c r="Y23">
-        <v>17270</v>
+        <v>1924</v>
       </c>
       <c r="Z23">
-        <v>9335</v>
+        <v>758</v>
       </c>
       <c r="AA23">
-        <v>6311</v>
+        <v>247</v>
       </c>
       <c r="AB23">
-        <v>7233</v>
+        <v>254</v>
       </c>
       <c r="AC23">
-        <v>5066</v>
+        <v>88</v>
       </c>
       <c r="AD23">
-        <v>3784</v>
+        <v>68</v>
       </c>
       <c r="AE23">
-        <v>3706</v>
+        <v>33</v>
       </c>
       <c r="AF23">
-        <v>2296</v>
+        <v>79</v>
       </c>
       <c r="AG23">
-        <v>732</v>
+        <v>96</v>
       </c>
       <c r="AH23">
-        <v>439</v>
+        <v>132</v>
       </c>
       <c r="AI23">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="AJ23">
-        <v>280</v>
+        <v>66</v>
       </c>
       <c r="AK23">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="AL23">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AM23">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="AN23">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AQ23">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AR23">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AS23">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="AT23">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AU23">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AV23">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="AW23">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AX23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AY23">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AZ23">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="BA23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BB23">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="BC23">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="BD23">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BE23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BF23">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BG23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BH23">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="BI23">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BJ23">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BK23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BL23">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>1000041242</v>
+        <v>1000041588</v>
       </c>
       <c r="B24">
-        <v>2020028086</v>
+        <v>2021004292</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -5614,25 +5627,25 @@
         <v>5</v>
       </c>
       <c r="E24" s="1">
-        <v>44166.273611111108</v>
+        <v>44377.370833333334</v>
       </c>
       <c r="F24" s="1">
-        <v>44840.559027777781</v>
+        <v>44837.487500000003</v>
       </c>
       <c r="G24">
-        <v>16182</v>
+        <v>11043</v>
       </c>
       <c r="H24">
-        <v>597.96</v>
+        <v>357.43</v>
       </c>
       <c r="I24" s="2">
-        <v>3.6999999999999998E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="J24">
-        <v>23</v>
+        <v>12851</v>
       </c>
       <c r="K24" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>0.1203</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -5641,50 +5654,50 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>299075</v>
+        <v>507425</v>
       </c>
       <c r="O24">
-        <v>1398818</v>
+        <v>698198</v>
       </c>
       <c r="P24">
-        <v>332854</v>
+        <v>75457</v>
       </c>
       <c r="Q24">
-        <v>64790</v>
+        <v>4662</v>
       </c>
       <c r="R24">
-        <v>28416</v>
+        <v>578</v>
       </c>
       <c r="S24">
-        <v>14618</v>
+        <v>121</v>
       </c>
       <c r="T24">
-        <v>7468</v>
+        <v>123</v>
       </c>
       <c r="U24">
-        <v>3847</v>
+        <v>99</v>
       </c>
       <c r="V24">
-        <v>1620</v>
+        <v>10</v>
       </c>
       <c r="W24">
-        <v>814</v>
+        <v>60</v>
       </c>
       <c r="X24">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="Z24">
+        <v>4</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
         <v>20</v>
       </c>
-      <c r="AA24">
-        <v>10</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
       <c r="AC24">
         <v>0</v>
       </c>
@@ -5794,12 +5807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>1000041459</v>
+        <v>1000041718</v>
       </c>
       <c r="B25">
-        <v>2020027301</v>
+        <v>2020036154</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5808,76 +5821,76 @@
         <v>5</v>
       </c>
       <c r="E25" s="1">
-        <v>44244.888888888891</v>
+        <v>44216.444444444445</v>
       </c>
       <c r="F25" s="1">
-        <v>44838.563888888886</v>
+        <v>44839.592361111114</v>
       </c>
       <c r="G25">
-        <v>14247</v>
+        <v>14955</v>
       </c>
       <c r="H25">
-        <v>890.69</v>
+        <v>814.39</v>
       </c>
       <c r="I25" s="2">
-        <v>6.25E-2</v>
+        <v>5.45E-2</v>
       </c>
       <c r="J25">
-        <v>2143</v>
+        <v>317</v>
       </c>
       <c r="K25" s="2">
-        <v>4.7E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="L25">
-        <v>2.46</v>
+        <v>0.46</v>
       </c>
       <c r="M25" s="2">
-        <v>2.8E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="N25">
-        <v>26717</v>
+        <v>407900</v>
       </c>
       <c r="O25">
-        <v>1842791</v>
+        <v>2059059</v>
       </c>
       <c r="P25">
-        <v>1231930</v>
+        <v>303831</v>
       </c>
       <c r="Q25">
-        <v>92996</v>
+        <v>101114</v>
       </c>
       <c r="R25">
-        <v>7318</v>
+        <v>37990</v>
       </c>
       <c r="S25">
-        <v>440</v>
+        <v>12688</v>
       </c>
       <c r="T25">
+        <v>4581</v>
+      </c>
+      <c r="U25">
+        <v>1750</v>
+      </c>
+      <c r="V25">
+        <v>774</v>
+      </c>
+      <c r="W25">
+        <v>336</v>
+      </c>
+      <c r="X25">
+        <v>113</v>
+      </c>
+      <c r="Y25">
         <v>10</v>
       </c>
-      <c r="U25">
-        <v>12</v>
-      </c>
-      <c r="V25">
-        <v>70</v>
-      </c>
-      <c r="W25">
-        <v>20</v>
-      </c>
-      <c r="X25">
+      <c r="Z25">
         <v>10</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
       <c r="AA25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -5988,12 +6001,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>1000041463</v>
+        <v>1000041787</v>
       </c>
       <c r="B26">
-        <v>2020031309</v>
+        <v>2020032210</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -6002,82 +6015,82 @@
         <v>5</v>
       </c>
       <c r="E26" s="1">
-        <v>44211.554861111108</v>
+        <v>44210.413888888892</v>
       </c>
       <c r="F26" s="1">
-        <v>44838.506249999999</v>
+        <v>44840.275000000001</v>
       </c>
       <c r="G26">
-        <v>15046</v>
+        <v>15116</v>
       </c>
       <c r="H26">
-        <v>660.33</v>
+        <v>1953.68</v>
       </c>
       <c r="I26" s="2">
-        <v>4.3900000000000002E-2</v>
+        <v>0.12920000000000001</v>
       </c>
       <c r="J26">
-        <v>4438</v>
+        <v>613</v>
       </c>
       <c r="K26" s="2">
-        <v>0.13120000000000001</v>
+        <v>3.2599999999999997E-2</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>28.98</v>
       </c>
       <c r="M26" s="2">
-        <v>0</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="N26">
-        <v>339464</v>
+        <v>3364424</v>
       </c>
       <c r="O26">
-        <v>1640427</v>
+        <v>2972791</v>
       </c>
       <c r="P26">
-        <v>315723</v>
+        <v>446461</v>
       </c>
       <c r="Q26">
-        <v>52731</v>
+        <v>71736</v>
       </c>
       <c r="R26">
-        <v>12368</v>
+        <v>37490</v>
       </c>
       <c r="S26">
-        <v>6120</v>
+        <v>26365</v>
       </c>
       <c r="T26">
-        <v>4193</v>
+        <v>14126</v>
       </c>
       <c r="U26">
-        <v>2415</v>
+        <v>10959</v>
       </c>
       <c r="V26">
-        <v>1781</v>
+        <v>1347</v>
       </c>
       <c r="W26">
-        <v>1030</v>
+        <v>186</v>
       </c>
       <c r="X26">
-        <v>405</v>
+        <v>220</v>
       </c>
       <c r="Y26">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>0</v>
       </c>
       <c r="AD26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -6086,10 +6099,10 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -6182,12 +6195,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>1000041517</v>
+        <v>1000041935</v>
       </c>
       <c r="B27">
-        <v>2020026080</v>
+        <v>2020041266</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -6196,128 +6209,128 @@
         <v>5</v>
       </c>
       <c r="E27" s="1">
-        <v>44265.802083333336</v>
+        <v>44286.482638888891</v>
       </c>
       <c r="F27" s="1">
-        <v>44833.995833333334</v>
+        <v>44838.272916666669</v>
       </c>
       <c r="G27">
-        <v>13636</v>
+        <v>13243</v>
       </c>
       <c r="H27">
-        <v>658.31</v>
+        <v>3411.17</v>
       </c>
       <c r="I27" s="2">
-        <v>4.8300000000000003E-2</v>
+        <v>0.2576</v>
       </c>
       <c r="J27">
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="K27" s="2">
-        <v>2.5999999999999999E-3</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>17.95</v>
       </c>
       <c r="M27" s="2">
-        <v>0</v>
+        <v>5.3E-3</v>
       </c>
       <c r="N27">
-        <v>1407090</v>
+        <v>4729841</v>
       </c>
       <c r="O27">
-        <v>272589</v>
+        <v>4603845</v>
       </c>
       <c r="P27">
-        <v>232195</v>
+        <v>1244867</v>
       </c>
       <c r="Q27">
-        <v>202835</v>
+        <v>549490</v>
       </c>
       <c r="R27">
-        <v>118385</v>
+        <v>312707</v>
       </c>
       <c r="S27">
-        <v>63990</v>
+        <v>173657</v>
       </c>
       <c r="T27">
-        <v>28583</v>
+        <v>138591</v>
       </c>
       <c r="U27">
-        <v>11879</v>
+        <v>113429</v>
       </c>
       <c r="V27">
-        <v>5880</v>
+        <v>135715</v>
       </c>
       <c r="W27">
-        <v>3270</v>
+        <v>122760</v>
       </c>
       <c r="X27">
-        <v>3187</v>
+        <v>61259</v>
       </c>
       <c r="Y27">
-        <v>2950</v>
+        <v>28377</v>
       </c>
       <c r="Z27">
-        <v>3531</v>
+        <v>10093</v>
       </c>
       <c r="AA27">
-        <v>3950</v>
+        <v>5153</v>
       </c>
       <c r="AB27">
-        <v>3519</v>
+        <v>1832</v>
       </c>
       <c r="AC27">
-        <v>2661</v>
+        <v>1729</v>
       </c>
       <c r="AD27">
-        <v>1582</v>
+        <v>957</v>
       </c>
       <c r="AE27">
-        <v>758</v>
+        <v>135</v>
       </c>
       <c r="AF27">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="AG27">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AH27">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AI27">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="AJ27">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="AK27">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
         <v>10</v>
       </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>10</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
       <c r="AT27">
         <v>0</v>
       </c>
@@ -6376,12 +6389,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>1000041541</v>
+        <v>1000041967</v>
       </c>
       <c r="B28">
-        <v>2020033996</v>
+        <v>2020036152</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -6390,115 +6403,115 @@
         <v>5</v>
       </c>
       <c r="E28" s="1">
-        <v>44244.601388888892</v>
+        <v>44306.349305555559</v>
       </c>
       <c r="F28" s="1">
-        <v>44837.61041666667</v>
+        <v>44837.243055555555</v>
       </c>
       <c r="G28">
-        <v>14231</v>
+        <v>12741</v>
       </c>
       <c r="H28">
-        <v>1773.79</v>
+        <v>590.26</v>
       </c>
       <c r="I28" s="2">
-        <v>0.1246</v>
+        <v>4.6300000000000001E-2</v>
       </c>
       <c r="J28">
-        <v>550</v>
+        <v>5595</v>
       </c>
       <c r="K28" s="2">
-        <v>4.2799999999999998E-2</v>
+        <v>9.35E-2</v>
       </c>
       <c r="L28">
-        <v>13.82</v>
+        <v>0</v>
       </c>
       <c r="M28" s="2">
-        <v>7.7999999999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>1770870</v>
+        <v>4511</v>
       </c>
       <c r="O28">
-        <v>2441365</v>
+        <v>440391</v>
       </c>
       <c r="P28">
-        <v>750251</v>
+        <v>786516</v>
       </c>
       <c r="Q28">
-        <v>516600</v>
+        <v>452288</v>
       </c>
       <c r="R28">
-        <v>486828</v>
+        <v>190835</v>
       </c>
       <c r="S28">
-        <v>168099</v>
+        <v>95230</v>
       </c>
       <c r="T28">
-        <v>60176</v>
+        <v>56181</v>
       </c>
       <c r="U28">
-        <v>38702</v>
+        <v>38557</v>
       </c>
       <c r="V28">
-        <v>29434</v>
+        <v>26178</v>
       </c>
       <c r="W28">
-        <v>18840</v>
+        <v>14615</v>
       </c>
       <c r="X28">
-        <v>12582</v>
+        <v>8636</v>
       </c>
       <c r="Y28">
-        <v>9020</v>
+        <v>4295</v>
       </c>
       <c r="Z28">
-        <v>7302</v>
+        <v>3525</v>
       </c>
       <c r="AA28">
-        <v>6744</v>
+        <v>1615</v>
       </c>
       <c r="AB28">
-        <v>6353</v>
+        <v>524</v>
       </c>
       <c r="AC28">
-        <v>6418</v>
+        <v>504</v>
       </c>
       <c r="AD28">
-        <v>5273</v>
+        <v>528</v>
       </c>
       <c r="AE28">
-        <v>3938</v>
+        <v>20</v>
       </c>
       <c r="AF28">
-        <v>1580</v>
+        <v>0</v>
       </c>
       <c r="AG28">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="AH28">
-        <v>1387</v>
+        <v>0</v>
       </c>
       <c r="AI28">
-        <v>2610</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="AK28">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AL28">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AM28">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AN28">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AO28">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AP28">
         <v>0</v>
@@ -6570,150 +6583,150 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>1000041551</v>
+        <v>1000041967</v>
       </c>
       <c r="B29">
-        <v>2020035604</v>
+        <v>2020036153</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="E29" s="1">
-        <v>44208.668055555558</v>
+        <v>44307.530555555553</v>
       </c>
       <c r="F29" s="1">
-        <v>44818.630555555559</v>
+        <v>44840.538194444445</v>
       </c>
       <c r="G29">
-        <v>14638</v>
+        <v>12792</v>
       </c>
       <c r="H29">
-        <v>354.14</v>
+        <v>713.64</v>
       </c>
       <c r="I29" s="2">
-        <v>2.4199999999999999E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="J29">
-        <v>383</v>
+        <v>5595</v>
       </c>
       <c r="K29" s="2">
-        <v>0.1396</v>
+        <v>9.35E-2</v>
       </c>
       <c r="L29">
-        <v>10.16</v>
+        <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>2.87E-2</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>246679</v>
+        <v>1214</v>
       </c>
       <c r="O29">
-        <v>382888</v>
+        <v>338955</v>
       </c>
       <c r="P29">
-        <v>224879</v>
+        <v>1503941</v>
       </c>
       <c r="Q29">
-        <v>80444</v>
+        <v>436337</v>
       </c>
       <c r="R29">
-        <v>56797</v>
+        <v>116720</v>
       </c>
       <c r="S29">
-        <v>49153</v>
+        <v>62483</v>
       </c>
       <c r="T29">
-        <v>41708</v>
+        <v>37655</v>
       </c>
       <c r="U29">
-        <v>45087</v>
+        <v>28053</v>
       </c>
       <c r="V29">
-        <v>36624</v>
+        <v>21760</v>
       </c>
       <c r="W29">
-        <v>32188</v>
+        <v>13662</v>
       </c>
       <c r="X29">
-        <v>21497</v>
+        <v>5120</v>
       </c>
       <c r="Y29">
-        <v>11007</v>
+        <v>1102</v>
       </c>
       <c r="Z29">
-        <v>5059</v>
+        <v>1128</v>
       </c>
       <c r="AA29">
-        <v>2438</v>
+        <v>720</v>
       </c>
       <c r="AB29">
-        <v>1150</v>
+        <v>200</v>
       </c>
       <c r="AC29">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="AD29">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="AE29">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="AH29">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="AI29">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="AJ29">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="AK29">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL29">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="AM29">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AN29">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS29">
         <v>0</v>
       </c>
       <c r="AT29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AU29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AV29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW29">
         <v>0</v>
@@ -6722,10 +6735,10 @@
         <v>0</v>
       </c>
       <c r="AY29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AZ29">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BA29">
         <v>0</v>
@@ -6740,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="BE29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BF29">
         <v>0</v>
@@ -6764,39 +6777,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>1000041588</v>
+        <v>1000042046</v>
       </c>
       <c r="B30">
-        <v>2020033523</v>
+        <v>2020041004</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30" s="1">
-        <v>44379.373611111114</v>
+        <v>44242.323611111111</v>
       </c>
       <c r="F30" s="1">
-        <v>44837.486111111109</v>
+        <v>44834.700694444444</v>
       </c>
       <c r="G30">
-        <v>10995</v>
+        <v>14216</v>
       </c>
       <c r="H30">
-        <v>424.29</v>
+        <v>2533.13</v>
       </c>
       <c r="I30" s="2">
-        <v>3.8600000000000002E-2</v>
+        <v>0.1782</v>
       </c>
       <c r="J30">
-        <v>12851</v>
+        <v>55</v>
       </c>
       <c r="K30" s="2">
-        <v>0.1203</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -6805,76 +6818,76 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>291572</v>
+        <v>1407600</v>
       </c>
       <c r="O30">
-        <v>879538</v>
+        <v>6805672</v>
       </c>
       <c r="P30">
-        <v>196559</v>
+        <v>872074</v>
       </c>
       <c r="Q30">
-        <v>56827</v>
+        <v>32799</v>
       </c>
       <c r="R30">
-        <v>27955</v>
+        <v>785</v>
       </c>
       <c r="S30">
-        <v>14256</v>
+        <v>50</v>
       </c>
       <c r="T30">
-        <v>13450</v>
+        <v>13</v>
       </c>
       <c r="U30">
-        <v>15937</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>14160</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>8545</v>
+        <v>197</v>
       </c>
       <c r="X30">
-        <v>4771</v>
+        <v>63</v>
       </c>
       <c r="Y30">
-        <v>1924</v>
+        <v>9</v>
       </c>
       <c r="Z30">
-        <v>758</v>
+        <v>18</v>
       </c>
       <c r="AA30">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="AI30">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AJ30">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="AK30">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>0</v>
@@ -6958,206 +6971,206 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>1000041588</v>
-      </c>
-      <c r="B31">
-        <v>2021004292</v>
-      </c>
-      <c r="C31">
+    <row r="31" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>1000042395</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2020037085</v>
+      </c>
+      <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1">
-        <v>44377.370833333334</v>
-      </c>
-      <c r="F31" s="1">
-        <v>44837.487500000003</v>
-      </c>
-      <c r="G31">
-        <v>11043</v>
-      </c>
-      <c r="H31">
-        <v>357.43</v>
-      </c>
-      <c r="I31" s="2">
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="J31">
-        <v>12851</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0.1203</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>507425</v>
-      </c>
-      <c r="O31">
-        <v>698198</v>
-      </c>
-      <c r="P31">
-        <v>75457</v>
-      </c>
-      <c r="Q31">
-        <v>4662</v>
-      </c>
-      <c r="R31">
-        <v>578</v>
-      </c>
-      <c r="S31">
-        <v>121</v>
-      </c>
-      <c r="T31">
-        <v>123</v>
-      </c>
-      <c r="U31">
-        <v>99</v>
-      </c>
-      <c r="V31">
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4">
+        <v>44328.624305555553</v>
+      </c>
+      <c r="F31" s="4">
+        <v>44488.779166666667</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3844</v>
+      </c>
+      <c r="H31" s="3">
+        <v>551.82000000000005</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.14360000000000001</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>43953</v>
+      </c>
+      <c r="O31" s="3">
+        <v>572332</v>
+      </c>
+      <c r="P31" s="3">
+        <v>735649</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>388820</v>
+      </c>
+      <c r="R31" s="3">
+        <v>144502</v>
+      </c>
+      <c r="S31" s="3">
+        <v>74562</v>
+      </c>
+      <c r="T31" s="3">
+        <v>21282</v>
+      </c>
+      <c r="U31" s="3">
+        <v>2739</v>
+      </c>
+      <c r="V31" s="3">
+        <v>801</v>
+      </c>
+      <c r="W31" s="3">
+        <v>601</v>
+      </c>
+      <c r="X31" s="3">
+        <v>504</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>332</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>150</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>134</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>110</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>60</v>
+      </c>
+      <c r="AD31" s="3">
         <v>10</v>
       </c>
-      <c r="W31">
-        <v>60</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>4</v>
-      </c>
-      <c r="Z31">
-        <v>4</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>20</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>0</v>
-      </c>
-      <c r="AS31">
-        <v>0</v>
-      </c>
-      <c r="AT31">
-        <v>0</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>0</v>
-      </c>
-      <c r="AW31">
-        <v>0</v>
-      </c>
-      <c r="AX31">
-        <v>0</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>0</v>
-      </c>
-      <c r="BB31">
-        <v>0</v>
-      </c>
-      <c r="BC31">
-        <v>0</v>
-      </c>
-      <c r="BD31">
-        <v>0</v>
-      </c>
-      <c r="BE31">
-        <v>0</v>
-      </c>
-      <c r="BF31">
-        <v>0</v>
-      </c>
-      <c r="BG31">
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <v>0</v>
-      </c>
-      <c r="BI31">
-        <v>0</v>
-      </c>
-      <c r="BJ31">
-        <v>0</v>
-      </c>
-      <c r="BK31">
-        <v>0</v>
-      </c>
-      <c r="BL31">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL31" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>1000041718</v>
+        <v>1000042655</v>
       </c>
       <c r="B32">
-        <v>2020036154</v>
+        <v>2020038524</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -7166,76 +7179,76 @@
         <v>5</v>
       </c>
       <c r="E32" s="1">
-        <v>44216.444444444445</v>
+        <v>44237.599305555559</v>
       </c>
       <c r="F32" s="1">
-        <v>44839.592361111114</v>
+        <v>44839.445833333331</v>
       </c>
       <c r="G32">
-        <v>14955</v>
+        <v>14443</v>
       </c>
       <c r="H32">
-        <v>814.39</v>
+        <v>131.43</v>
       </c>
       <c r="I32" s="2">
-        <v>5.45E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="J32">
-        <v>317</v>
+        <v>209</v>
       </c>
       <c r="K32" s="2">
-        <v>1.72E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="L32">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>407900</v>
+        <v>52793</v>
       </c>
       <c r="O32">
-        <v>2059059</v>
+        <v>185061</v>
       </c>
       <c r="P32">
-        <v>303831</v>
+        <v>138850</v>
       </c>
       <c r="Q32">
-        <v>101114</v>
+        <v>72241</v>
       </c>
       <c r="R32">
-        <v>37990</v>
+        <v>17909</v>
       </c>
       <c r="S32">
-        <v>12688</v>
+        <v>3930</v>
       </c>
       <c r="T32">
-        <v>4581</v>
+        <v>1328</v>
       </c>
       <c r="U32">
-        <v>1750</v>
+        <v>569</v>
       </c>
       <c r="V32">
-        <v>774</v>
+        <v>345</v>
       </c>
       <c r="W32">
-        <v>336</v>
+        <v>90</v>
       </c>
       <c r="X32">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="Y32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -7346,96 +7359,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>1000041787</v>
+        <v>1000042662</v>
       </c>
       <c r="B33">
-        <v>2020032210</v>
+        <v>2021001484</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E33" s="1">
-        <v>44210.413888888892</v>
+        <v>44275.386111111111</v>
       </c>
       <c r="F33" s="1">
-        <v>44840.275000000001</v>
+        <v>44606.486111111109</v>
       </c>
       <c r="G33">
-        <v>15116</v>
+        <v>7946</v>
       </c>
       <c r="H33">
-        <v>1953.68</v>
+        <v>627.54999999999995</v>
       </c>
       <c r="I33" s="2">
-        <v>0.12920000000000001</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="J33">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2">
-        <v>3.2599999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>28.98</v>
+        <v>0</v>
       </c>
       <c r="M33" s="2">
-        <v>1.4800000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>3364424</v>
+        <v>88701</v>
       </c>
       <c r="O33">
-        <v>2972791</v>
+        <v>1342117</v>
       </c>
       <c r="P33">
-        <v>446461</v>
+        <v>605594</v>
       </c>
       <c r="Q33">
-        <v>71736</v>
+        <v>152013</v>
       </c>
       <c r="R33">
-        <v>37490</v>
+        <v>32631</v>
       </c>
       <c r="S33">
-        <v>26365</v>
+        <v>15351</v>
       </c>
       <c r="T33">
-        <v>14126</v>
+        <v>10372</v>
       </c>
       <c r="U33">
-        <v>10959</v>
+        <v>5350</v>
       </c>
       <c r="V33">
-        <v>1347</v>
+        <v>2687</v>
       </c>
       <c r="W33">
-        <v>186</v>
+        <v>1700</v>
       </c>
       <c r="X33">
+        <v>935</v>
+      </c>
+      <c r="Y33">
+        <v>550</v>
+      </c>
+      <c r="Z33">
+        <v>140</v>
+      </c>
+      <c r="AA33">
+        <v>367</v>
+      </c>
+      <c r="AB33">
         <v>220</v>
       </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
       <c r="AC33">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -7444,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="AG33">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH33">
         <v>0</v>
@@ -7474,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -7507,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="BB33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BC33">
         <v>0</v>
@@ -7540,12 +7553,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>1000041935</v>
-      </c>
-      <c r="B34">
-        <v>2020041266</v>
+        <v>1000042662</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -7554,103 +7567,103 @@
         <v>5</v>
       </c>
       <c r="E34" s="1">
-        <v>44286.482638888891</v>
+        <v>44611.341666666667</v>
       </c>
       <c r="F34" s="1">
-        <v>44838.272916666669</v>
+        <v>44915.325694444444</v>
       </c>
       <c r="G34">
-        <v>13243</v>
+        <v>7296</v>
       </c>
       <c r="H34">
-        <v>3411.17</v>
+        <v>741.93</v>
       </c>
       <c r="I34" s="2">
-        <v>0.2576</v>
+        <v>0.1017</v>
       </c>
       <c r="J34">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2">
-        <v>5.8999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>17.95</v>
+        <v>0</v>
       </c>
       <c r="M34" s="2">
-        <v>5.3E-3</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>4729841</v>
+        <v>88293</v>
       </c>
       <c r="O34">
-        <v>4603845</v>
+        <v>1426718</v>
       </c>
       <c r="P34">
-        <v>1244867</v>
+        <v>700871</v>
       </c>
       <c r="Q34">
-        <v>549490</v>
+        <v>280584</v>
       </c>
       <c r="R34">
-        <v>312707</v>
+        <v>124447</v>
       </c>
       <c r="S34">
-        <v>173657</v>
+        <v>27637</v>
       </c>
       <c r="T34">
-        <v>138591</v>
+        <v>9997</v>
       </c>
       <c r="U34">
-        <v>113429</v>
+        <v>8000</v>
       </c>
       <c r="V34">
-        <v>135715</v>
+        <v>2943</v>
       </c>
       <c r="W34">
-        <v>122760</v>
+        <v>1083</v>
       </c>
       <c r="X34">
-        <v>61259</v>
+        <v>178</v>
       </c>
       <c r="Y34">
-        <v>28377</v>
+        <v>60</v>
       </c>
       <c r="Z34">
-        <v>10093</v>
+        <v>12</v>
       </c>
       <c r="AA34">
-        <v>5153</v>
+        <v>20</v>
       </c>
       <c r="AB34">
-        <v>1832</v>
+        <v>20</v>
       </c>
       <c r="AC34">
-        <v>1729</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>957</v>
+        <v>10</v>
       </c>
       <c r="AE34">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="AF34">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="AI34">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AK34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>0</v>
@@ -7668,13 +7681,13 @@
         <v>0</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AR34">
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT34">
         <v>0</v>
@@ -7692,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="AY34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ34">
         <v>0</v>
@@ -7734,12 +7747,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>1000041964</v>
+        <v>1000042945</v>
       </c>
       <c r="B35">
-        <v>2020035365</v>
+        <v>2020026786</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7748,25 +7761,25 @@
         <v>5</v>
       </c>
       <c r="E35" s="1">
-        <v>44306.379861111112</v>
+        <v>44228.611111111109</v>
       </c>
       <c r="F35" s="1">
-        <v>44841.254861111112</v>
+        <v>44837.397916666669</v>
       </c>
       <c r="G35">
-        <v>12837</v>
+        <v>14610</v>
       </c>
       <c r="H35">
-        <v>332.97</v>
+        <v>711.58</v>
       </c>
       <c r="I35" s="2">
-        <v>2.5899999999999999E-2</v>
+        <v>4.87E-2</v>
       </c>
       <c r="J35">
-        <v>38952</v>
+        <v>9703</v>
       </c>
       <c r="K35" s="2">
-        <v>0.65249999999999997</v>
+        <v>0.1119</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -7775,61 +7788,61 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>36939</v>
+        <v>74614</v>
       </c>
       <c r="O35">
-        <v>555378</v>
+        <v>1095232</v>
       </c>
       <c r="P35">
-        <v>291330</v>
+        <v>927299</v>
       </c>
       <c r="Q35">
-        <v>122794</v>
+        <v>332719</v>
       </c>
       <c r="R35">
-        <v>62741</v>
+        <v>84250</v>
       </c>
       <c r="S35">
-        <v>35262</v>
+        <v>24143</v>
       </c>
       <c r="T35">
-        <v>24349</v>
+        <v>6543</v>
       </c>
       <c r="U35">
-        <v>16959</v>
+        <v>4789</v>
       </c>
       <c r="V35">
-        <v>13304</v>
+        <v>5763</v>
       </c>
       <c r="W35">
-        <v>7285</v>
+        <v>2461</v>
       </c>
       <c r="X35">
-        <v>7203</v>
+        <v>1939</v>
       </c>
       <c r="Y35">
-        <v>7614</v>
+        <v>1044</v>
       </c>
       <c r="Z35">
-        <v>5867</v>
+        <v>505</v>
       </c>
       <c r="AA35">
-        <v>6527</v>
+        <v>189</v>
       </c>
       <c r="AB35">
-        <v>3828</v>
+        <v>100</v>
       </c>
       <c r="AC35">
-        <v>1157</v>
+        <v>90</v>
       </c>
       <c r="AD35">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="AE35">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AF35">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG35">
         <v>0</v>
@@ -7928,93 +7941,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>1000041964</v>
+        <v>1000043391</v>
       </c>
       <c r="B36">
-        <v>2020035366</v>
+        <v>2020039145</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>5</v>
       </c>
       <c r="E36" s="1">
-        <v>44306.35</v>
+        <v>44224.353472222225</v>
       </c>
       <c r="F36" s="1">
-        <v>44841.254861111112</v>
+        <v>44838.472222222219</v>
       </c>
       <c r="G36">
-        <v>12838</v>
+        <v>14738</v>
       </c>
       <c r="H36">
-        <v>397.63</v>
+        <v>1296.04</v>
       </c>
       <c r="I36" s="2">
-        <v>3.1E-2</v>
+        <v>8.7900000000000006E-2</v>
       </c>
       <c r="J36">
-        <v>38952</v>
+        <v>402</v>
       </c>
       <c r="K36" s="2">
-        <v>0.65249999999999997</v>
+        <v>1.47E-2</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>16.48</v>
       </c>
       <c r="M36" s="2">
-        <v>0</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="N36">
-        <v>59976</v>
+        <v>1361134</v>
       </c>
       <c r="O36">
-        <v>844598</v>
+        <v>2259726</v>
       </c>
       <c r="P36">
-        <v>354001</v>
+        <v>728601</v>
       </c>
       <c r="Q36">
-        <v>63102</v>
+        <v>226555</v>
       </c>
       <c r="R36">
-        <v>33664</v>
+        <v>51038</v>
       </c>
       <c r="S36">
-        <v>24354</v>
+        <v>10291</v>
       </c>
       <c r="T36">
-        <v>16635</v>
+        <v>2993</v>
       </c>
       <c r="U36">
-        <v>8612</v>
+        <v>1383</v>
       </c>
       <c r="V36">
-        <v>5258</v>
+        <v>670</v>
       </c>
       <c r="W36">
-        <v>6124</v>
+        <v>320</v>
       </c>
       <c r="X36">
-        <v>7278</v>
+        <v>100</v>
       </c>
       <c r="Y36">
-        <v>5364</v>
+        <v>51</v>
       </c>
       <c r="Z36">
-        <v>2165</v>
+        <v>69</v>
       </c>
       <c r="AA36">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="AB36">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -8122,12 +8135,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>1000041967</v>
+        <v>1000043559</v>
       </c>
       <c r="B37">
-        <v>2020036152</v>
+        <v>2021001479</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -8136,25 +8149,25 @@
         <v>5</v>
       </c>
       <c r="E37" s="1">
-        <v>44306.349305555559</v>
+        <v>44258.449305555558</v>
       </c>
       <c r="F37" s="1">
-        <v>44837.243055555555</v>
+        <v>44841.256249999999</v>
       </c>
       <c r="G37">
-        <v>12741</v>
+        <v>13986</v>
       </c>
       <c r="H37">
-        <v>590.26</v>
+        <v>408.29</v>
       </c>
       <c r="I37" s="2">
-        <v>4.6300000000000001E-2</v>
+        <v>2.92E-2</v>
       </c>
       <c r="J37">
-        <v>5595</v>
+        <v>308</v>
       </c>
       <c r="K37" s="2">
-        <v>9.35E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -8163,67 +8176,67 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>4511</v>
+        <v>76951</v>
       </c>
       <c r="O37">
-        <v>440391</v>
+        <v>388649</v>
       </c>
       <c r="P37">
-        <v>786516</v>
+        <v>480148</v>
       </c>
       <c r="Q37">
-        <v>452288</v>
+        <v>239645</v>
       </c>
       <c r="R37">
-        <v>190835</v>
+        <v>87068</v>
       </c>
       <c r="S37">
-        <v>95230</v>
+        <v>74955</v>
       </c>
       <c r="T37">
-        <v>56181</v>
+        <v>57429</v>
       </c>
       <c r="U37">
-        <v>38557</v>
+        <v>32154</v>
       </c>
       <c r="V37">
-        <v>26178</v>
+        <v>13775</v>
       </c>
       <c r="W37">
-        <v>14615</v>
+        <v>4923</v>
       </c>
       <c r="X37">
-        <v>8636</v>
+        <v>3359</v>
       </c>
       <c r="Y37">
-        <v>4295</v>
+        <v>2766</v>
       </c>
       <c r="Z37">
-        <v>3525</v>
+        <v>2234</v>
       </c>
       <c r="AA37">
-        <v>1615</v>
+        <v>2572</v>
       </c>
       <c r="AB37">
-        <v>524</v>
+        <v>1192</v>
       </c>
       <c r="AC37">
-        <v>504</v>
+        <v>658</v>
       </c>
       <c r="AD37">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="AE37">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI37">
         <v>0</v>
@@ -8256,10 +8269,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AT37">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8316,108 +8329,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>1000041967</v>
+        <v>1000044344</v>
       </c>
       <c r="B38">
-        <v>2020036153</v>
+        <v>2021007746</v>
       </c>
       <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>44294.209027777775</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44617.3</v>
+      </c>
+      <c r="G38">
+        <v>7755</v>
+      </c>
+      <c r="H38">
+        <v>525.54999999999995</v>
+      </c>
+      <c r="I38" s="2">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>323077</v>
+      </c>
+      <c r="O38">
+        <v>1098963</v>
+      </c>
+      <c r="P38">
+        <v>317188</v>
+      </c>
+      <c r="Q38">
+        <v>99357</v>
+      </c>
+      <c r="R38">
+        <v>40745</v>
+      </c>
+      <c r="S38">
+        <v>9284</v>
+      </c>
+      <c r="T38">
+        <v>1988</v>
+      </c>
+      <c r="U38">
+        <v>558</v>
+      </c>
+      <c r="V38">
+        <v>107</v>
+      </c>
+      <c r="W38">
+        <v>62</v>
+      </c>
+      <c r="X38">
+        <v>159</v>
+      </c>
+      <c r="Y38">
+        <v>408</v>
+      </c>
+      <c r="Z38">
         <v>11</v>
       </c>
-      <c r="D38">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
         <v>5</v>
       </c>
-      <c r="E38" s="1">
-        <v>44307.530555555553</v>
-      </c>
-      <c r="F38" s="1">
-        <v>44840.538194444445</v>
-      </c>
-      <c r="G38">
-        <v>12792</v>
-      </c>
-      <c r="H38">
-        <v>713.64</v>
-      </c>
-      <c r="I38" s="2">
-        <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="J38">
-        <v>5595</v>
-      </c>
-      <c r="K38" s="2">
-        <v>9.35E-2</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>1214</v>
-      </c>
-      <c r="O38">
-        <v>338955</v>
-      </c>
-      <c r="P38">
-        <v>1503941</v>
-      </c>
-      <c r="Q38">
-        <v>436337</v>
-      </c>
-      <c r="R38">
-        <v>116720</v>
-      </c>
-      <c r="S38">
-        <v>62483</v>
-      </c>
-      <c r="T38">
-        <v>37655</v>
-      </c>
-      <c r="U38">
-        <v>28053</v>
-      </c>
-      <c r="V38">
-        <v>21760</v>
-      </c>
-      <c r="W38">
-        <v>13662</v>
-      </c>
-      <c r="X38">
-        <v>5120</v>
-      </c>
-      <c r="Y38">
-        <v>1102</v>
-      </c>
-      <c r="Z38">
-        <v>1128</v>
-      </c>
-      <c r="AA38">
-        <v>720</v>
-      </c>
-      <c r="AB38">
-        <v>200</v>
-      </c>
       <c r="AC38">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AE38">
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI38">
         <v>0</v>
@@ -8510,12 +8523,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>1000042046</v>
-      </c>
-      <c r="B39">
-        <v>2020041004</v>
+        <v>1000044344</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -8524,25 +8537,25 @@
         <v>5</v>
       </c>
       <c r="E39" s="1">
-        <v>44242.323611111111</v>
+        <v>44627.447916666664</v>
       </c>
       <c r="F39" s="1">
-        <v>44834.700694444444</v>
+        <v>44965.579861111109</v>
       </c>
       <c r="G39">
-        <v>14216</v>
+        <v>8115</v>
       </c>
       <c r="H39">
-        <v>2533.13</v>
+        <v>656.06</v>
       </c>
       <c r="I39" s="2">
-        <v>0.1782</v>
+        <v>8.0799999999999997E-2</v>
       </c>
       <c r="J39">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -8551,46 +8564,46 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1407600</v>
+        <v>535747</v>
       </c>
       <c r="O39">
-        <v>6805672</v>
+        <v>1241793</v>
       </c>
       <c r="P39">
-        <v>872074</v>
+        <v>421492</v>
       </c>
       <c r="Q39">
-        <v>32799</v>
+        <v>93670</v>
       </c>
       <c r="R39">
-        <v>785</v>
+        <v>30904</v>
       </c>
       <c r="S39">
+        <v>19936</v>
+      </c>
+      <c r="T39">
+        <v>13746</v>
+      </c>
+      <c r="U39">
+        <v>3295</v>
+      </c>
+      <c r="V39">
+        <v>442</v>
+      </c>
+      <c r="W39">
+        <v>418</v>
+      </c>
+      <c r="X39">
+        <v>34</v>
+      </c>
+      <c r="Y39">
         <v>50</v>
       </c>
-      <c r="T39">
-        <v>13</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>197</v>
-      </c>
-      <c r="X39">
-        <v>63</v>
-      </c>
-      <c r="Y39">
-        <v>9</v>
-      </c>
       <c r="Z39">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -8704,206 +8717,206 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>1000042395</v>
-      </c>
-      <c r="B40" s="3">
-        <v>2020037085</v>
-      </c>
-      <c r="C40" s="3">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1000044366</v>
+      </c>
+      <c r="B40">
+        <v>2021010506</v>
+      </c>
+      <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>3</v>
       </c>
-      <c r="E40" s="4">
-        <v>44328.624305555553</v>
-      </c>
-      <c r="F40" s="4">
-        <v>44488.779166666667</v>
-      </c>
-      <c r="G40" s="3">
-        <v>3844</v>
-      </c>
-      <c r="H40" s="3">
-        <v>551.82000000000005</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0.14360000000000001</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0</v>
-      </c>
-      <c r="K40" s="5">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
-      <c r="M40" s="5">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3">
-        <v>43953</v>
-      </c>
-      <c r="O40" s="3">
-        <v>572332</v>
-      </c>
-      <c r="P40" s="3">
-        <v>735649</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>388820</v>
-      </c>
-      <c r="R40" s="3">
-        <v>144502</v>
-      </c>
-      <c r="S40" s="3">
-        <v>74562</v>
-      </c>
-      <c r="T40" s="3">
-        <v>21282</v>
-      </c>
-      <c r="U40" s="3">
-        <v>2739</v>
-      </c>
-      <c r="V40" s="3">
-        <v>801</v>
-      </c>
-      <c r="W40" s="3">
-        <v>601</v>
-      </c>
-      <c r="X40" s="3">
-        <v>504</v>
-      </c>
-      <c r="Y40" s="3">
-        <v>332</v>
-      </c>
-      <c r="Z40" s="3">
-        <v>150</v>
-      </c>
-      <c r="AA40" s="3">
-        <v>134</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>110</v>
-      </c>
-      <c r="AC40" s="3">
-        <v>60</v>
-      </c>
-      <c r="AD40" s="3">
-        <v>10</v>
-      </c>
-      <c r="AE40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL40" s="3">
+      <c r="E40" s="1">
+        <v>44284.478472222225</v>
+      </c>
+      <c r="F40" s="1">
+        <v>44522.666666666664</v>
+      </c>
+      <c r="G40">
+        <v>5718</v>
+      </c>
+      <c r="H40">
+        <v>138.55000000000001</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>24361</v>
+      </c>
+      <c r="O40">
+        <v>257204</v>
+      </c>
+      <c r="P40">
+        <v>167503</v>
+      </c>
+      <c r="Q40">
+        <v>38959</v>
+      </c>
+      <c r="R40">
+        <v>8910</v>
+      </c>
+      <c r="S40">
+        <v>1631</v>
+      </c>
+      <c r="T40">
+        <v>105</v>
+      </c>
+      <c r="U40">
+        <v>14</v>
+      </c>
+      <c r="V40">
+        <v>48</v>
+      </c>
+      <c r="W40">
+        <v>35</v>
+      </c>
+      <c r="X40">
+        <v>20</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BK40">
+        <v>0</v>
+      </c>
+      <c r="BL40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>1000042655</v>
+        <v>1000044366</v>
       </c>
       <c r="B41">
-        <v>2020038524</v>
+        <v>2021053580</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -8912,25 +8925,25 @@
         <v>5</v>
       </c>
       <c r="E41" s="1">
-        <v>44237.599305555559</v>
+        <v>44523.293749999997</v>
       </c>
       <c r="F41" s="1">
-        <v>44839.445833333331</v>
+        <v>44970.408333333333</v>
       </c>
       <c r="G41">
-        <v>14443</v>
+        <v>10731</v>
       </c>
       <c r="H41">
-        <v>131.43</v>
+        <v>322.64</v>
       </c>
       <c r="I41" s="2">
-        <v>9.1000000000000004E-3</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="J41">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -8939,50 +8952,50 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>52793</v>
+        <v>48536</v>
       </c>
       <c r="O41">
-        <v>185061</v>
+        <v>574737</v>
       </c>
       <c r="P41">
-        <v>138850</v>
+        <v>309751</v>
       </c>
       <c r="Q41">
-        <v>72241</v>
+        <v>130716</v>
       </c>
       <c r="R41">
-        <v>17909</v>
+        <v>43760</v>
       </c>
       <c r="S41">
-        <v>3930</v>
+        <v>26950</v>
       </c>
       <c r="T41">
-        <v>1328</v>
+        <v>17271</v>
       </c>
       <c r="U41">
-        <v>569</v>
+        <v>6682</v>
       </c>
       <c r="V41">
-        <v>345</v>
+        <v>2016</v>
       </c>
       <c r="W41">
-        <v>90</v>
+        <v>673</v>
       </c>
       <c r="X41">
+        <v>226</v>
+      </c>
+      <c r="Y41">
+        <v>115</v>
+      </c>
+      <c r="Z41">
+        <v>32</v>
+      </c>
+      <c r="AA41">
+        <v>10</v>
+      </c>
+      <c r="AB41">
         <v>30</v>
       </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
       <c r="AC41">
         <v>0</v>
       </c>
@@ -9092,39 +9105,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>1000042662</v>
+        <v>1000044589</v>
       </c>
       <c r="B42">
-        <v>2021001484</v>
+        <v>2019002178</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E42" s="1">
-        <v>44275.386111111111</v>
+        <v>44333.464583333334</v>
       </c>
       <c r="F42" s="1">
-        <v>44606.486111111109</v>
+        <v>44837.617361111108</v>
       </c>
       <c r="G42">
-        <v>7946</v>
+        <v>12100</v>
       </c>
       <c r="H42">
-        <v>627.54999999999995</v>
+        <v>99.76</v>
       </c>
       <c r="I42" s="2">
-        <v>7.9000000000000001E-2</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="K42" s="2">
-        <v>0</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -9133,55 +9146,55 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>88701</v>
+        <v>72030</v>
       </c>
       <c r="O42">
-        <v>1342117</v>
+        <v>239414</v>
       </c>
       <c r="P42">
-        <v>605594</v>
+        <v>33961</v>
       </c>
       <c r="Q42">
-        <v>152013</v>
+        <v>12837</v>
       </c>
       <c r="R42">
-        <v>32631</v>
+        <v>848</v>
       </c>
       <c r="S42">
-        <v>15351</v>
+        <v>29</v>
       </c>
       <c r="T42">
-        <v>10372</v>
+        <v>10</v>
       </c>
       <c r="U42">
-        <v>5350</v>
+        <v>10</v>
       </c>
       <c r="V42">
-        <v>2687</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="X42">
-        <v>935</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AE42">
         <v>0</v>
@@ -9220,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -9253,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="BB42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BC42">
         <v>0</v>
@@ -9286,114 +9299,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>1000042662</v>
-      </c>
-      <c r="B43" t="s">
-        <v>64</v>
+        <v>1000044589</v>
+      </c>
+      <c r="B43">
+        <v>2021012816</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D43">
         <v>5</v>
       </c>
       <c r="E43" s="1">
-        <v>44611.341666666667</v>
+        <v>44333.374305555553</v>
       </c>
       <c r="F43" s="1">
-        <v>44915.325694444444</v>
+        <v>44837.621527777781</v>
       </c>
       <c r="G43">
-        <v>7296</v>
+        <v>12102</v>
       </c>
       <c r="H43">
-        <v>741.93</v>
+        <v>806.91</v>
       </c>
       <c r="I43" s="2">
-        <v>0.1017</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="K43" s="2">
-        <v>0</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M43" s="2">
-        <v>0</v>
+        <v>1.4E-3</v>
       </c>
       <c r="N43">
-        <v>88293</v>
+        <v>482457</v>
       </c>
       <c r="O43">
-        <v>1426718</v>
+        <v>1790727</v>
       </c>
       <c r="P43">
-        <v>700871</v>
+        <v>410295</v>
       </c>
       <c r="Q43">
-        <v>280584</v>
+        <v>108669</v>
       </c>
       <c r="R43">
-        <v>124447</v>
+        <v>56438</v>
       </c>
       <c r="S43">
-        <v>27637</v>
+        <v>23600</v>
       </c>
       <c r="T43">
-        <v>9997</v>
+        <v>11772</v>
       </c>
       <c r="U43">
-        <v>8000</v>
+        <v>6242</v>
       </c>
       <c r="V43">
-        <v>2943</v>
+        <v>3408</v>
       </c>
       <c r="W43">
-        <v>1083</v>
+        <v>2626</v>
       </c>
       <c r="X43">
-        <v>178</v>
+        <v>1803</v>
       </c>
       <c r="Y43">
-        <v>60</v>
+        <v>1747</v>
       </c>
       <c r="Z43">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="AA43">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="AB43">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AD43">
+        <v>30</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
         <v>10</v>
       </c>
-      <c r="AE43">
-        <v>10</v>
-      </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
       <c r="AG43">
         <v>0</v>
       </c>
       <c r="AH43">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI43">
         <v>0</v>
       </c>
       <c r="AJ43">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AK43">
         <v>0</v>
@@ -9414,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="AQ43">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AR43">
         <v>0</v>
@@ -9438,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="AY43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ43">
         <v>0</v>
@@ -9480,39 +9493,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>1000042945</v>
+        <v>1000046674</v>
       </c>
       <c r="B44">
-        <v>2020026786</v>
+        <v>2021019692</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D44">
         <v>5</v>
       </c>
       <c r="E44" s="1">
-        <v>44228.611111111109</v>
+        <v>44440.337500000001</v>
       </c>
       <c r="F44" s="1">
-        <v>44837.397916666669</v>
+        <v>44833.555555555555</v>
       </c>
       <c r="G44">
-        <v>14610</v>
+        <v>9437</v>
       </c>
       <c r="H44">
-        <v>711.58</v>
+        <v>446.73</v>
       </c>
       <c r="I44" s="2">
-        <v>4.87E-2</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="J44">
-        <v>9703</v>
+        <v>2820</v>
       </c>
       <c r="K44" s="2">
-        <v>0.1119</v>
+        <v>3.95E-2</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -9521,58 +9534,58 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>74614</v>
+        <v>160131</v>
       </c>
       <c r="O44">
-        <v>1095232</v>
+        <v>820981</v>
       </c>
       <c r="P44">
-        <v>927299</v>
+        <v>475400</v>
       </c>
       <c r="Q44">
-        <v>332719</v>
+        <v>122602</v>
       </c>
       <c r="R44">
-        <v>84250</v>
+        <v>20022</v>
       </c>
       <c r="S44">
-        <v>24143</v>
+        <v>1786</v>
       </c>
       <c r="T44">
-        <v>6543</v>
+        <v>466</v>
       </c>
       <c r="U44">
-        <v>4789</v>
+        <v>1526</v>
       </c>
       <c r="V44">
-        <v>5763</v>
+        <v>1363</v>
       </c>
       <c r="W44">
-        <v>2461</v>
+        <v>1477</v>
       </c>
       <c r="X44">
-        <v>1939</v>
+        <v>1458</v>
       </c>
       <c r="Y44">
-        <v>1044</v>
+        <v>952</v>
       </c>
       <c r="Z44">
-        <v>505</v>
+        <v>52</v>
       </c>
       <c r="AA44">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AD44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -9674,12 +9687,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>1000043391</v>
+        <v>1000046674</v>
       </c>
       <c r="B45">
-        <v>2020039145</v>
+        <v>2021023041</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -9688,73 +9701,73 @@
         <v>5</v>
       </c>
       <c r="E45" s="1">
-        <v>44224.353472222225</v>
+        <v>44439.347916666666</v>
       </c>
       <c r="F45" s="1">
-        <v>44838.472222222219</v>
+        <v>44833.555555555555</v>
       </c>
       <c r="G45">
-        <v>14738</v>
+        <v>9461</v>
       </c>
       <c r="H45">
-        <v>1296.04</v>
+        <v>89.02</v>
       </c>
       <c r="I45" s="2">
-        <v>8.7900000000000006E-2</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="J45">
-        <v>402</v>
+        <v>2820</v>
       </c>
       <c r="K45" s="2">
-        <v>1.47E-2</v>
+        <v>3.95E-2</v>
       </c>
       <c r="L45">
-        <v>16.48</v>
+        <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>1.2699999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>1361134</v>
+        <v>116571</v>
       </c>
       <c r="O45">
-        <v>2259726</v>
+        <v>167984</v>
       </c>
       <c r="P45">
-        <v>728601</v>
+        <v>34956</v>
       </c>
       <c r="Q45">
-        <v>226555</v>
+        <v>853</v>
       </c>
       <c r="R45">
-        <v>51038</v>
+        <v>81</v>
       </c>
       <c r="S45">
-        <v>10291</v>
+        <v>11</v>
       </c>
       <c r="T45">
-        <v>2993</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>1383</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X45">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="Y45">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="Z45">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -9868,12 +9881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>1000043458</v>
+        <v>1000048323</v>
       </c>
       <c r="B46">
-        <v>2021001939</v>
+        <v>2021037707</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -9882,112 +9895,112 @@
         <v>5</v>
       </c>
       <c r="E46" s="1">
-        <v>44286.46875</v>
+        <v>44577.09375</v>
       </c>
       <c r="F46" s="1">
-        <v>44834.524305555555</v>
+        <v>44838.234722222223</v>
       </c>
       <c r="G46">
-        <v>13153</v>
+        <v>6266</v>
       </c>
       <c r="H46">
-        <v>1428.2</v>
+        <v>924.15</v>
       </c>
       <c r="I46" s="2">
-        <v>0.1086</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="J46">
-        <v>4069</v>
+        <v>1525</v>
       </c>
       <c r="K46" s="2">
-        <v>0.2266</v>
+        <v>2.7699999999999999E-2</v>
       </c>
       <c r="L46">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="M46" s="2">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>330313</v>
+        <v>154695</v>
       </c>
       <c r="O46">
-        <v>2671665</v>
+        <v>733870</v>
       </c>
       <c r="P46">
-        <v>1092858</v>
+        <v>686921</v>
       </c>
       <c r="Q46">
-        <v>586511</v>
+        <v>522201</v>
       </c>
       <c r="R46">
-        <v>157052</v>
+        <v>387086</v>
       </c>
       <c r="S46">
-        <v>36207</v>
+        <v>225414</v>
       </c>
       <c r="T46">
-        <v>71242</v>
+        <v>181476</v>
       </c>
       <c r="U46">
-        <v>106236</v>
+        <v>173344</v>
       </c>
       <c r="V46">
-        <v>36239</v>
+        <v>103264</v>
       </c>
       <c r="W46">
-        <v>17419</v>
+        <v>56842</v>
       </c>
       <c r="X46">
-        <v>18374</v>
+        <v>40777</v>
       </c>
       <c r="Y46">
-        <v>7461</v>
+        <v>23263</v>
       </c>
       <c r="Z46">
-        <v>2132</v>
+        <v>12027</v>
       </c>
       <c r="AA46">
-        <v>1949</v>
+        <v>8006</v>
       </c>
       <c r="AB46">
-        <v>2430</v>
+        <v>5256</v>
       </c>
       <c r="AC46">
-        <v>1522</v>
+        <v>3438</v>
       </c>
       <c r="AD46">
-        <v>862</v>
+        <v>1964</v>
       </c>
       <c r="AE46">
-        <v>134</v>
+        <v>1621</v>
       </c>
       <c r="AF46">
-        <v>130</v>
+        <v>1520</v>
       </c>
       <c r="AG46">
-        <v>66</v>
+        <v>1002</v>
       </c>
       <c r="AH46">
-        <v>39</v>
+        <v>603</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="AJ46">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="AK46">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="AL46">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="AM46">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="AN46">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AO46">
         <v>0</v>
@@ -9996,10 +10009,10 @@
         <v>0</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS46">
         <v>0</v>
@@ -10023,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="AZ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA46">
         <v>0</v>
@@ -10050,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="BI46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ46">
         <v>0</v>
@@ -10062,39 +10075,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>1000043559</v>
+        <v>1000048804</v>
       </c>
       <c r="B47">
-        <v>2021001479</v>
+        <v>2021036985</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47" s="1">
-        <v>44258.449305555558</v>
+        <v>44447.681944444441</v>
       </c>
       <c r="F47" s="1">
-        <v>44841.256249999999</v>
+        <v>44782.63958333333</v>
       </c>
       <c r="G47">
-        <v>13986</v>
+        <v>8039</v>
       </c>
       <c r="H47">
-        <v>408.29</v>
+        <v>358.93</v>
       </c>
       <c r="I47" s="2">
-        <v>2.92E-2</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="J47">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2">
-        <v>8.8000000000000005E-3</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -10103,67 +10116,67 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>76951</v>
+        <v>112322</v>
       </c>
       <c r="O47">
-        <v>388649</v>
+        <v>591952</v>
       </c>
       <c r="P47">
-        <v>480148</v>
+        <v>410495</v>
       </c>
       <c r="Q47">
-        <v>239645</v>
+        <v>102668</v>
       </c>
       <c r="R47">
-        <v>87068</v>
+        <v>35803</v>
       </c>
       <c r="S47">
-        <v>74955</v>
+        <v>17533</v>
       </c>
       <c r="T47">
-        <v>57429</v>
+        <v>6197</v>
       </c>
       <c r="U47">
-        <v>32154</v>
+        <v>4298</v>
       </c>
       <c r="V47">
-        <v>13775</v>
+        <v>2661</v>
       </c>
       <c r="W47">
-        <v>4923</v>
+        <v>605</v>
       </c>
       <c r="X47">
-        <v>3359</v>
+        <v>625</v>
       </c>
       <c r="Y47">
-        <v>2766</v>
+        <v>627</v>
       </c>
       <c r="Z47">
-        <v>2234</v>
+        <v>1658</v>
       </c>
       <c r="AA47">
-        <v>2572</v>
+        <v>1503</v>
       </c>
       <c r="AB47">
-        <v>1192</v>
+        <v>984</v>
       </c>
       <c r="AC47">
-        <v>658</v>
+        <v>1048</v>
       </c>
       <c r="AD47">
-        <v>479</v>
+        <v>1000</v>
       </c>
       <c r="AE47">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="AF47">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AG47">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AH47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI47">
         <v>0</v>
@@ -10178,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="AM47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN47">
         <v>0</v>
@@ -10196,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="AT47">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -10256,33 +10269,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>1000044344</v>
-      </c>
-      <c r="B48">
-        <v>2021007746</v>
+        <v>1000048804</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E48" s="1">
-        <v>44294.209027777775</v>
+        <v>44819.533333333333</v>
       </c>
       <c r="F48" s="1">
-        <v>44617.3</v>
+        <v>44965.586111111108</v>
       </c>
       <c r="G48">
-        <v>7755</v>
+        <v>3506</v>
       </c>
       <c r="H48">
-        <v>525.54999999999995</v>
+        <v>287.44</v>
       </c>
       <c r="I48" s="2">
-        <v>6.7799999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -10297,67 +10310,67 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>323077</v>
+        <v>573712</v>
       </c>
       <c r="O48">
-        <v>1098963</v>
+        <v>308559</v>
       </c>
       <c r="P48">
-        <v>317188</v>
+        <v>111366</v>
       </c>
       <c r="Q48">
-        <v>99357</v>
+        <v>26975</v>
       </c>
       <c r="R48">
-        <v>40745</v>
+        <v>8256</v>
       </c>
       <c r="S48">
-        <v>9284</v>
+        <v>3007</v>
       </c>
       <c r="T48">
-        <v>1988</v>
+        <v>1442</v>
       </c>
       <c r="U48">
-        <v>558</v>
+        <v>759</v>
       </c>
       <c r="V48">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="W48">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="X48">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="Y48">
-        <v>408</v>
+        <v>208</v>
       </c>
       <c r="Z48">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC48">
         <v>0</v>
       </c>
       <c r="AD48">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AE48">
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG48">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AH48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AI48">
         <v>0</v>
@@ -10450,12 +10463,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>1000044344</v>
-      </c>
-      <c r="B49" t="s">
-        <v>65</v>
+        <v>1000050094</v>
+      </c>
+      <c r="B49">
+        <v>2021038297</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -10464,25 +10477,25 @@
         <v>5</v>
       </c>
       <c r="E49" s="1">
-        <v>44627.447916666664</v>
+        <v>44642.309027777781</v>
       </c>
       <c r="F49" s="1">
-        <v>44965.579861111109</v>
+        <v>44839.269444444442</v>
       </c>
       <c r="G49">
-        <v>8115</v>
+        <v>4726</v>
       </c>
       <c r="H49">
-        <v>656.06</v>
+        <v>28.22</v>
       </c>
       <c r="I49" s="2">
-        <v>8.0799999999999997E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K49" s="2">
-        <v>0</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -10491,46 +10504,46 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>535747</v>
+        <v>7582</v>
       </c>
       <c r="O49">
-        <v>1241793</v>
+        <v>56692</v>
       </c>
       <c r="P49">
-        <v>421492</v>
+        <v>28388</v>
       </c>
       <c r="Q49">
-        <v>93670</v>
+        <v>7263</v>
       </c>
       <c r="R49">
-        <v>30904</v>
+        <v>1067</v>
       </c>
       <c r="S49">
-        <v>19936</v>
+        <v>329</v>
       </c>
       <c r="T49">
-        <v>13746</v>
+        <v>111</v>
       </c>
       <c r="U49">
-        <v>3295</v>
+        <v>113</v>
       </c>
       <c r="V49">
-        <v>442</v>
+        <v>47</v>
       </c>
       <c r="W49">
-        <v>418</v>
+        <v>11</v>
       </c>
       <c r="X49">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Y49">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z49">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -10644,33 +10657,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>1000044366</v>
+        <v>1000050733</v>
       </c>
       <c r="B50">
-        <v>2021010506</v>
+        <v>2021026654</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E50" s="1">
-        <v>44284.478472222225</v>
+        <v>44615.677777777775</v>
       </c>
       <c r="F50" s="1">
-        <v>44522.666666666664</v>
+        <v>44831.556250000001</v>
       </c>
       <c r="G50">
-        <v>5718</v>
+        <v>5180</v>
       </c>
       <c r="H50">
-        <v>138.55000000000001</v>
+        <v>23.3</v>
       </c>
       <c r="I50" s="2">
-        <v>2.4199999999999999E-2</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -10685,37 +10698,37 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>24361</v>
+        <v>37210</v>
       </c>
       <c r="O50">
-        <v>257204</v>
+        <v>46658</v>
       </c>
       <c r="P50">
-        <v>167503</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>38959</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>8910</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>1631</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="X50">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -10838,12 +10851,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>1000044366</v>
+        <v>1000050818</v>
       </c>
       <c r="B51">
-        <v>2021053580</v>
+        <v>2022008606</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -10852,19 +10865,19 @@
         <v>5</v>
       </c>
       <c r="E51" s="1">
-        <v>44523.293749999997</v>
+        <v>44837.425000000003</v>
       </c>
       <c r="F51" s="1">
-        <v>44970.408333333333</v>
+        <v>44838.245833333334</v>
       </c>
       <c r="G51">
-        <v>10731</v>
+        <v>20</v>
       </c>
       <c r="H51">
-        <v>322.64</v>
+        <v>0.94</v>
       </c>
       <c r="I51" s="2">
-        <v>3.0099999999999998E-2</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -10879,49 +10892,49 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>48536</v>
+        <v>99</v>
       </c>
       <c r="O51">
-        <v>574737</v>
+        <v>3092</v>
       </c>
       <c r="P51">
-        <v>309751</v>
+        <v>187</v>
       </c>
       <c r="Q51">
-        <v>130716</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>43760</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>26950</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>17271</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>6682</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>2016</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="X51">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="Z51">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB51">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -11032,12 +11045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>1000044589</v>
+        <v>1000052454</v>
       </c>
       <c r="B52">
-        <v>2019002178</v>
+        <v>2021047242</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -11046,25 +11059,25 @@
         <v>5</v>
       </c>
       <c r="E52" s="1">
-        <v>44333.464583333334</v>
+        <v>44785.247916666667</v>
       </c>
       <c r="F52" s="1">
-        <v>44837.617361111108</v>
+        <v>44840.27847222222</v>
       </c>
       <c r="G52">
-        <v>12100</v>
+        <v>1321</v>
       </c>
       <c r="H52">
-        <v>99.76</v>
+        <v>325.94</v>
       </c>
       <c r="I52" s="2">
-        <v>8.2000000000000007E-3</v>
+        <v>0.2467</v>
       </c>
       <c r="J52">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="K52" s="2">
-        <v>9.9000000000000008E-3</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -11073,28 +11086,28 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>72030</v>
+        <v>476364</v>
       </c>
       <c r="O52">
-        <v>239414</v>
+        <v>694318</v>
       </c>
       <c r="P52">
-        <v>33961</v>
+        <v>2708</v>
       </c>
       <c r="Q52">
-        <v>12837</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>848</v>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -11226,102 +11239,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>1000044589</v>
+        <v>1000055813</v>
       </c>
       <c r="B53">
-        <v>2021012816</v>
+        <v>2022016712</v>
       </c>
       <c r="C53">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>5</v>
       </c>
       <c r="E53" s="1">
-        <v>44333.374305555553</v>
+        <v>44826.3125</v>
       </c>
       <c r="F53" s="1">
-        <v>44837.621527777781</v>
+        <v>44834.252083333333</v>
       </c>
       <c r="G53">
-        <v>12102</v>
+        <v>191</v>
       </c>
       <c r="H53">
-        <v>806.91</v>
+        <v>1.89</v>
       </c>
       <c r="I53" s="2">
-        <v>6.6699999999999995E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="J53">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2">
-        <v>9.9000000000000008E-3</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>1.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="M53" s="2">
-        <v>1.4E-3</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>482457</v>
+        <v>57</v>
       </c>
       <c r="O53">
-        <v>1790727</v>
+        <v>560</v>
       </c>
       <c r="P53">
-        <v>410295</v>
+        <v>1239</v>
       </c>
       <c r="Q53">
-        <v>108669</v>
+        <v>2963</v>
       </c>
       <c r="R53">
-        <v>56438</v>
+        <v>1409</v>
       </c>
       <c r="S53">
-        <v>23600</v>
+        <v>370</v>
       </c>
       <c r="T53">
-        <v>11772</v>
+        <v>5</v>
       </c>
       <c r="U53">
-        <v>6242</v>
+        <v>184</v>
       </c>
       <c r="V53">
-        <v>3408</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>2626</v>
+        <v>0</v>
       </c>
       <c r="X53">
-        <v>1803</v>
+        <v>0</v>
       </c>
       <c r="Y53">
-        <v>1747</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="AB53">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AD53">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AE53">
         <v>0</v>
       </c>
       <c r="AF53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG53">
         <v>0</v>
@@ -11417,1946 +11430,6 @@
         <v>0</v>
       </c>
       <c r="BL53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>1000046674</v>
-      </c>
-      <c r="B54">
-        <v>2021019692</v>
-      </c>
-      <c r="C54">
-        <v>11</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54" s="1">
-        <v>44440.337500000001</v>
-      </c>
-      <c r="F54" s="1">
-        <v>44833.555555555555</v>
-      </c>
-      <c r="G54">
-        <v>9437</v>
-      </c>
-      <c r="H54">
-        <v>446.73</v>
-      </c>
-      <c r="I54" s="2">
-        <v>4.7300000000000002E-2</v>
-      </c>
-      <c r="J54">
-        <v>2820</v>
-      </c>
-      <c r="K54" s="2">
-        <v>3.95E-2</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>160131</v>
-      </c>
-      <c r="O54">
-        <v>820981</v>
-      </c>
-      <c r="P54">
-        <v>475400</v>
-      </c>
-      <c r="Q54">
-        <v>122602</v>
-      </c>
-      <c r="R54">
-        <v>20022</v>
-      </c>
-      <c r="S54">
-        <v>1786</v>
-      </c>
-      <c r="T54">
-        <v>466</v>
-      </c>
-      <c r="U54">
-        <v>1526</v>
-      </c>
-      <c r="V54">
-        <v>1363</v>
-      </c>
-      <c r="W54">
-        <v>1477</v>
-      </c>
-      <c r="X54">
-        <v>1458</v>
-      </c>
-      <c r="Y54">
-        <v>952</v>
-      </c>
-      <c r="Z54">
-        <v>52</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54">
-        <v>0</v>
-      </c>
-      <c r="AN54">
-        <v>0</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-      <c r="AP54">
-        <v>0</v>
-      </c>
-      <c r="AQ54">
-        <v>0</v>
-      </c>
-      <c r="AR54">
-        <v>0</v>
-      </c>
-      <c r="AS54">
-        <v>0</v>
-      </c>
-      <c r="AT54">
-        <v>0</v>
-      </c>
-      <c r="AU54">
-        <v>0</v>
-      </c>
-      <c r="AV54">
-        <v>0</v>
-      </c>
-      <c r="AW54">
-        <v>0</v>
-      </c>
-      <c r="AX54">
-        <v>0</v>
-      </c>
-      <c r="AY54">
-        <v>0</v>
-      </c>
-      <c r="AZ54">
-        <v>0</v>
-      </c>
-      <c r="BA54">
-        <v>0</v>
-      </c>
-      <c r="BB54">
-        <v>0</v>
-      </c>
-      <c r="BC54">
-        <v>0</v>
-      </c>
-      <c r="BD54">
-        <v>0</v>
-      </c>
-      <c r="BE54">
-        <v>0</v>
-      </c>
-      <c r="BF54">
-        <v>0</v>
-      </c>
-      <c r="BG54">
-        <v>0</v>
-      </c>
-      <c r="BH54">
-        <v>0</v>
-      </c>
-      <c r="BI54">
-        <v>0</v>
-      </c>
-      <c r="BJ54">
-        <v>0</v>
-      </c>
-      <c r="BK54">
-        <v>0</v>
-      </c>
-      <c r="BL54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>1000046674</v>
-      </c>
-      <c r="B55">
-        <v>2021023041</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55" s="1">
-        <v>44439.347916666666</v>
-      </c>
-      <c r="F55" s="1">
-        <v>44833.555555555555</v>
-      </c>
-      <c r="G55">
-        <v>9461</v>
-      </c>
-      <c r="H55">
-        <v>89.02</v>
-      </c>
-      <c r="I55" s="2">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="J55">
-        <v>2820</v>
-      </c>
-      <c r="K55" s="2">
-        <v>3.95E-2</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55" s="2">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>116571</v>
-      </c>
-      <c r="O55">
-        <v>167984</v>
-      </c>
-      <c r="P55">
-        <v>34956</v>
-      </c>
-      <c r="Q55">
-        <v>853</v>
-      </c>
-      <c r="R55">
-        <v>81</v>
-      </c>
-      <c r="S55">
-        <v>11</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>11</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <v>0</v>
-      </c>
-      <c r="AN55">
-        <v>0</v>
-      </c>
-      <c r="AO55">
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <v>0</v>
-      </c>
-      <c r="AQ55">
-        <v>0</v>
-      </c>
-      <c r="AR55">
-        <v>0</v>
-      </c>
-      <c r="AS55">
-        <v>0</v>
-      </c>
-      <c r="AT55">
-        <v>0</v>
-      </c>
-      <c r="AU55">
-        <v>0</v>
-      </c>
-      <c r="AV55">
-        <v>0</v>
-      </c>
-      <c r="AW55">
-        <v>0</v>
-      </c>
-      <c r="AX55">
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <v>0</v>
-      </c>
-      <c r="AZ55">
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <v>0</v>
-      </c>
-      <c r="BB55">
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <v>0</v>
-      </c>
-      <c r="BD55">
-        <v>0</v>
-      </c>
-      <c r="BE55">
-        <v>0</v>
-      </c>
-      <c r="BF55">
-        <v>0</v>
-      </c>
-      <c r="BG55">
-        <v>0</v>
-      </c>
-      <c r="BH55">
-        <v>0</v>
-      </c>
-      <c r="BI55">
-        <v>0</v>
-      </c>
-      <c r="BJ55">
-        <v>0</v>
-      </c>
-      <c r="BK55">
-        <v>0</v>
-      </c>
-      <c r="BL55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>1000048323</v>
-      </c>
-      <c r="B56">
-        <v>2021037707</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="E56" s="1">
-        <v>44577.09375</v>
-      </c>
-      <c r="F56" s="1">
-        <v>44838.234722222223</v>
-      </c>
-      <c r="G56">
-        <v>6266</v>
-      </c>
-      <c r="H56">
-        <v>924.15</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0.14749999999999999</v>
-      </c>
-      <c r="J56">
-        <v>1525</v>
-      </c>
-      <c r="K56" s="2">
-        <v>2.7699999999999999E-2</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56" s="2">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>154695</v>
-      </c>
-      <c r="O56">
-        <v>733870</v>
-      </c>
-      <c r="P56">
-        <v>686921</v>
-      </c>
-      <c r="Q56">
-        <v>522201</v>
-      </c>
-      <c r="R56">
-        <v>387086</v>
-      </c>
-      <c r="S56">
-        <v>225414</v>
-      </c>
-      <c r="T56">
-        <v>181476</v>
-      </c>
-      <c r="U56">
-        <v>173344</v>
-      </c>
-      <c r="V56">
-        <v>103264</v>
-      </c>
-      <c r="W56">
-        <v>56842</v>
-      </c>
-      <c r="X56">
-        <v>40777</v>
-      </c>
-      <c r="Y56">
-        <v>23263</v>
-      </c>
-      <c r="Z56">
-        <v>12027</v>
-      </c>
-      <c r="AA56">
-        <v>8006</v>
-      </c>
-      <c r="AB56">
-        <v>5256</v>
-      </c>
-      <c r="AC56">
-        <v>3438</v>
-      </c>
-      <c r="AD56">
-        <v>1964</v>
-      </c>
-      <c r="AE56">
-        <v>1621</v>
-      </c>
-      <c r="AF56">
-        <v>1520</v>
-      </c>
-      <c r="AG56">
-        <v>1002</v>
-      </c>
-      <c r="AH56">
-        <v>603</v>
-      </c>
-      <c r="AI56">
-        <v>691</v>
-      </c>
-      <c r="AJ56">
-        <v>519</v>
-      </c>
-      <c r="AK56">
-        <v>440</v>
-      </c>
-      <c r="AL56">
-        <v>268</v>
-      </c>
-      <c r="AM56">
-        <v>347</v>
-      </c>
-      <c r="AN56">
-        <v>76</v>
-      </c>
-      <c r="AO56">
-        <v>0</v>
-      </c>
-      <c r="AP56">
-        <v>0</v>
-      </c>
-      <c r="AQ56">
-        <v>3</v>
-      </c>
-      <c r="AR56">
-        <v>1</v>
-      </c>
-      <c r="AS56">
-        <v>0</v>
-      </c>
-      <c r="AT56">
-        <v>0</v>
-      </c>
-      <c r="AU56">
-        <v>0</v>
-      </c>
-      <c r="AV56">
-        <v>0</v>
-      </c>
-      <c r="AW56">
-        <v>0</v>
-      </c>
-      <c r="AX56">
-        <v>0</v>
-      </c>
-      <c r="AY56">
-        <v>0</v>
-      </c>
-      <c r="AZ56">
-        <v>1</v>
-      </c>
-      <c r="BA56">
-        <v>0</v>
-      </c>
-      <c r="BB56">
-        <v>0</v>
-      </c>
-      <c r="BC56">
-        <v>0</v>
-      </c>
-      <c r="BD56">
-        <v>0</v>
-      </c>
-      <c r="BE56">
-        <v>0</v>
-      </c>
-      <c r="BF56">
-        <v>0</v>
-      </c>
-      <c r="BG56">
-        <v>0</v>
-      </c>
-      <c r="BH56">
-        <v>0</v>
-      </c>
-      <c r="BI56">
-        <v>1</v>
-      </c>
-      <c r="BJ56">
-        <v>0</v>
-      </c>
-      <c r="BK56">
-        <v>0</v>
-      </c>
-      <c r="BL56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>1000048804</v>
-      </c>
-      <c r="B57">
-        <v>2021036985</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57" s="1">
-        <v>44447.681944444441</v>
-      </c>
-      <c r="F57" s="1">
-        <v>44782.63958333333</v>
-      </c>
-      <c r="G57">
-        <v>8039</v>
-      </c>
-      <c r="H57">
-        <v>358.93</v>
-      </c>
-      <c r="I57" s="2">
-        <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57" s="2">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>112322</v>
-      </c>
-      <c r="O57">
-        <v>591952</v>
-      </c>
-      <c r="P57">
-        <v>410495</v>
-      </c>
-      <c r="Q57">
-        <v>102668</v>
-      </c>
-      <c r="R57">
-        <v>35803</v>
-      </c>
-      <c r="S57">
-        <v>17533</v>
-      </c>
-      <c r="T57">
-        <v>6197</v>
-      </c>
-      <c r="U57">
-        <v>4298</v>
-      </c>
-      <c r="V57">
-        <v>2661</v>
-      </c>
-      <c r="W57">
-        <v>605</v>
-      </c>
-      <c r="X57">
-        <v>625</v>
-      </c>
-      <c r="Y57">
-        <v>627</v>
-      </c>
-      <c r="Z57">
-        <v>1658</v>
-      </c>
-      <c r="AA57">
-        <v>1503</v>
-      </c>
-      <c r="AB57">
-        <v>984</v>
-      </c>
-      <c r="AC57">
-        <v>1048</v>
-      </c>
-      <c r="AD57">
-        <v>1000</v>
-      </c>
-      <c r="AE57">
-        <v>150</v>
-      </c>
-      <c r="AF57">
-        <v>0</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-      <c r="AI57">
-        <v>0</v>
-      </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
-      <c r="AK57">
-        <v>0</v>
-      </c>
-      <c r="AL57">
-        <v>0</v>
-      </c>
-      <c r="AM57">
-        <v>1</v>
-      </c>
-      <c r="AN57">
-        <v>0</v>
-      </c>
-      <c r="AO57">
-        <v>0</v>
-      </c>
-      <c r="AP57">
-        <v>0</v>
-      </c>
-      <c r="AQ57">
-        <v>0</v>
-      </c>
-      <c r="AR57">
-        <v>0</v>
-      </c>
-      <c r="AS57">
-        <v>0</v>
-      </c>
-      <c r="AT57">
-        <v>0</v>
-      </c>
-      <c r="AU57">
-        <v>0</v>
-      </c>
-      <c r="AV57">
-        <v>0</v>
-      </c>
-      <c r="AW57">
-        <v>0</v>
-      </c>
-      <c r="AX57">
-        <v>0</v>
-      </c>
-      <c r="AY57">
-        <v>0</v>
-      </c>
-      <c r="AZ57">
-        <v>0</v>
-      </c>
-      <c r="BA57">
-        <v>0</v>
-      </c>
-      <c r="BB57">
-        <v>0</v>
-      </c>
-      <c r="BC57">
-        <v>0</v>
-      </c>
-      <c r="BD57">
-        <v>0</v>
-      </c>
-      <c r="BE57">
-        <v>0</v>
-      </c>
-      <c r="BF57">
-        <v>0</v>
-      </c>
-      <c r="BG57">
-        <v>0</v>
-      </c>
-      <c r="BH57">
-        <v>0</v>
-      </c>
-      <c r="BI57">
-        <v>0</v>
-      </c>
-      <c r="BJ57">
-        <v>0</v>
-      </c>
-      <c r="BK57">
-        <v>0</v>
-      </c>
-      <c r="BL57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>1000048804</v>
-      </c>
-      <c r="B58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-      <c r="E58" s="1">
-        <v>44819.533333333333</v>
-      </c>
-      <c r="F58" s="1">
-        <v>44965.586111111108</v>
-      </c>
-      <c r="G58">
-        <v>3506</v>
-      </c>
-      <c r="H58">
-        <v>287.44</v>
-      </c>
-      <c r="I58" s="2">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>573712</v>
-      </c>
-      <c r="O58">
-        <v>308559</v>
-      </c>
-      <c r="P58">
-        <v>111366</v>
-      </c>
-      <c r="Q58">
-        <v>26975</v>
-      </c>
-      <c r="R58">
-        <v>8256</v>
-      </c>
-      <c r="S58">
-        <v>3007</v>
-      </c>
-      <c r="T58">
-        <v>1442</v>
-      </c>
-      <c r="U58">
-        <v>759</v>
-      </c>
-      <c r="V58">
-        <v>281</v>
-      </c>
-      <c r="W58">
-        <v>100</v>
-      </c>
-      <c r="X58">
-        <v>51</v>
-      </c>
-      <c r="Y58">
-        <v>208</v>
-      </c>
-      <c r="Z58">
-        <v>38</v>
-      </c>
-      <c r="AA58">
-        <v>30</v>
-      </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
-      <c r="AE58">
-        <v>0</v>
-      </c>
-      <c r="AF58">
-        <v>0</v>
-      </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
-      <c r="AI58">
-        <v>0</v>
-      </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
-      <c r="AK58">
-        <v>0</v>
-      </c>
-      <c r="AL58">
-        <v>0</v>
-      </c>
-      <c r="AM58">
-        <v>0</v>
-      </c>
-      <c r="AN58">
-        <v>0</v>
-      </c>
-      <c r="AO58">
-        <v>0</v>
-      </c>
-      <c r="AP58">
-        <v>0</v>
-      </c>
-      <c r="AQ58">
-        <v>0</v>
-      </c>
-      <c r="AR58">
-        <v>0</v>
-      </c>
-      <c r="AS58">
-        <v>0</v>
-      </c>
-      <c r="AT58">
-        <v>0</v>
-      </c>
-      <c r="AU58">
-        <v>0</v>
-      </c>
-      <c r="AV58">
-        <v>0</v>
-      </c>
-      <c r="AW58">
-        <v>0</v>
-      </c>
-      <c r="AX58">
-        <v>0</v>
-      </c>
-      <c r="AY58">
-        <v>0</v>
-      </c>
-      <c r="AZ58">
-        <v>0</v>
-      </c>
-      <c r="BA58">
-        <v>0</v>
-      </c>
-      <c r="BB58">
-        <v>0</v>
-      </c>
-      <c r="BC58">
-        <v>0</v>
-      </c>
-      <c r="BD58">
-        <v>0</v>
-      </c>
-      <c r="BE58">
-        <v>0</v>
-      </c>
-      <c r="BF58">
-        <v>0</v>
-      </c>
-      <c r="BG58">
-        <v>0</v>
-      </c>
-      <c r="BH58">
-        <v>0</v>
-      </c>
-      <c r="BI58">
-        <v>0</v>
-      </c>
-      <c r="BJ58">
-        <v>0</v>
-      </c>
-      <c r="BK58">
-        <v>0</v>
-      </c>
-      <c r="BL58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>1000050094</v>
-      </c>
-      <c r="B59">
-        <v>2021038297</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-      <c r="E59" s="1">
-        <v>44642.309027777781</v>
-      </c>
-      <c r="F59" s="1">
-        <v>44839.269444444442</v>
-      </c>
-      <c r="G59">
-        <v>4726</v>
-      </c>
-      <c r="H59">
-        <v>28.22</v>
-      </c>
-      <c r="I59" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J59">
-        <v>19</v>
-      </c>
-      <c r="K59" s="2">
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>7582</v>
-      </c>
-      <c r="O59">
-        <v>56692</v>
-      </c>
-      <c r="P59">
-        <v>28388</v>
-      </c>
-      <c r="Q59">
-        <v>7263</v>
-      </c>
-      <c r="R59">
-        <v>1067</v>
-      </c>
-      <c r="S59">
-        <v>329</v>
-      </c>
-      <c r="T59">
-        <v>111</v>
-      </c>
-      <c r="U59">
-        <v>113</v>
-      </c>
-      <c r="V59">
-        <v>47</v>
-      </c>
-      <c r="W59">
-        <v>11</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <v>0</v>
-      </c>
-      <c r="AD59">
-        <v>0</v>
-      </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <v>0</v>
-      </c>
-      <c r="AG59">
-        <v>0</v>
-      </c>
-      <c r="AH59">
-        <v>0</v>
-      </c>
-      <c r="AI59">
-        <v>0</v>
-      </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
-      <c r="AK59">
-        <v>0</v>
-      </c>
-      <c r="AL59">
-        <v>0</v>
-      </c>
-      <c r="AM59">
-        <v>0</v>
-      </c>
-      <c r="AN59">
-        <v>0</v>
-      </c>
-      <c r="AO59">
-        <v>0</v>
-      </c>
-      <c r="AP59">
-        <v>0</v>
-      </c>
-      <c r="AQ59">
-        <v>0</v>
-      </c>
-      <c r="AR59">
-        <v>0</v>
-      </c>
-      <c r="AS59">
-        <v>0</v>
-      </c>
-      <c r="AT59">
-        <v>0</v>
-      </c>
-      <c r="AU59">
-        <v>0</v>
-      </c>
-      <c r="AV59">
-        <v>0</v>
-      </c>
-      <c r="AW59">
-        <v>0</v>
-      </c>
-      <c r="AX59">
-        <v>0</v>
-      </c>
-      <c r="AY59">
-        <v>0</v>
-      </c>
-      <c r="AZ59">
-        <v>0</v>
-      </c>
-      <c r="BA59">
-        <v>0</v>
-      </c>
-      <c r="BB59">
-        <v>0</v>
-      </c>
-      <c r="BC59">
-        <v>0</v>
-      </c>
-      <c r="BD59">
-        <v>0</v>
-      </c>
-      <c r="BE59">
-        <v>0</v>
-      </c>
-      <c r="BF59">
-        <v>0</v>
-      </c>
-      <c r="BG59">
-        <v>0</v>
-      </c>
-      <c r="BH59">
-        <v>0</v>
-      </c>
-      <c r="BI59">
-        <v>0</v>
-      </c>
-      <c r="BJ59">
-        <v>0</v>
-      </c>
-      <c r="BK59">
-        <v>0</v>
-      </c>
-      <c r="BL59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>1000050733</v>
-      </c>
-      <c r="B60">
-        <v>2021026654</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="E60" s="1">
-        <v>44615.677777777775</v>
-      </c>
-      <c r="F60" s="1">
-        <v>44831.556250000001</v>
-      </c>
-      <c r="G60">
-        <v>5180</v>
-      </c>
-      <c r="H60">
-        <v>23.3</v>
-      </c>
-      <c r="I60" s="2">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60" s="2">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>37210</v>
-      </c>
-      <c r="O60">
-        <v>46658</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
-      <c r="AF60">
-        <v>0</v>
-      </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-      <c r="AI60">
-        <v>0</v>
-      </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
-      <c r="AK60">
-        <v>0</v>
-      </c>
-      <c r="AL60">
-        <v>0</v>
-      </c>
-      <c r="AM60">
-        <v>0</v>
-      </c>
-      <c r="AN60">
-        <v>0</v>
-      </c>
-      <c r="AO60">
-        <v>0</v>
-      </c>
-      <c r="AP60">
-        <v>0</v>
-      </c>
-      <c r="AQ60">
-        <v>0</v>
-      </c>
-      <c r="AR60">
-        <v>0</v>
-      </c>
-      <c r="AS60">
-        <v>0</v>
-      </c>
-      <c r="AT60">
-        <v>0</v>
-      </c>
-      <c r="AU60">
-        <v>0</v>
-      </c>
-      <c r="AV60">
-        <v>0</v>
-      </c>
-      <c r="AW60">
-        <v>0</v>
-      </c>
-      <c r="AX60">
-        <v>0</v>
-      </c>
-      <c r="AY60">
-        <v>0</v>
-      </c>
-      <c r="AZ60">
-        <v>0</v>
-      </c>
-      <c r="BA60">
-        <v>0</v>
-      </c>
-      <c r="BB60">
-        <v>0</v>
-      </c>
-      <c r="BC60">
-        <v>0</v>
-      </c>
-      <c r="BD60">
-        <v>0</v>
-      </c>
-      <c r="BE60">
-        <v>0</v>
-      </c>
-      <c r="BF60">
-        <v>0</v>
-      </c>
-      <c r="BG60">
-        <v>0</v>
-      </c>
-      <c r="BH60">
-        <v>0</v>
-      </c>
-      <c r="BI60">
-        <v>0</v>
-      </c>
-      <c r="BJ60">
-        <v>0</v>
-      </c>
-      <c r="BK60">
-        <v>0</v>
-      </c>
-      <c r="BL60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>1000050818</v>
-      </c>
-      <c r="B61">
-        <v>2022008606</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>5</v>
-      </c>
-      <c r="E61" s="1">
-        <v>44837.425000000003</v>
-      </c>
-      <c r="F61" s="1">
-        <v>44838.245833333334</v>
-      </c>
-      <c r="G61">
-        <v>20</v>
-      </c>
-      <c r="H61">
-        <v>0.94</v>
-      </c>
-      <c r="I61" s="2">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61" s="2">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>99</v>
-      </c>
-      <c r="O61">
-        <v>3092</v>
-      </c>
-      <c r="P61">
-        <v>187</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-      <c r="AE61">
-        <v>0</v>
-      </c>
-      <c r="AF61">
-        <v>0</v>
-      </c>
-      <c r="AG61">
-        <v>0</v>
-      </c>
-      <c r="AH61">
-        <v>0</v>
-      </c>
-      <c r="AI61">
-        <v>0</v>
-      </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
-      <c r="AK61">
-        <v>0</v>
-      </c>
-      <c r="AL61">
-        <v>0</v>
-      </c>
-      <c r="AM61">
-        <v>0</v>
-      </c>
-      <c r="AN61">
-        <v>0</v>
-      </c>
-      <c r="AO61">
-        <v>0</v>
-      </c>
-      <c r="AP61">
-        <v>0</v>
-      </c>
-      <c r="AQ61">
-        <v>0</v>
-      </c>
-      <c r="AR61">
-        <v>0</v>
-      </c>
-      <c r="AS61">
-        <v>0</v>
-      </c>
-      <c r="AT61">
-        <v>0</v>
-      </c>
-      <c r="AU61">
-        <v>0</v>
-      </c>
-      <c r="AV61">
-        <v>0</v>
-      </c>
-      <c r="AW61">
-        <v>0</v>
-      </c>
-      <c r="AX61">
-        <v>0</v>
-      </c>
-      <c r="AY61">
-        <v>0</v>
-      </c>
-      <c r="AZ61">
-        <v>0</v>
-      </c>
-      <c r="BA61">
-        <v>0</v>
-      </c>
-      <c r="BB61">
-        <v>0</v>
-      </c>
-      <c r="BC61">
-        <v>0</v>
-      </c>
-      <c r="BD61">
-        <v>0</v>
-      </c>
-      <c r="BE61">
-        <v>0</v>
-      </c>
-      <c r="BF61">
-        <v>0</v>
-      </c>
-      <c r="BG61">
-        <v>0</v>
-      </c>
-      <c r="BH61">
-        <v>0</v>
-      </c>
-      <c r="BI61">
-        <v>0</v>
-      </c>
-      <c r="BJ61">
-        <v>0</v>
-      </c>
-      <c r="BK61">
-        <v>0</v>
-      </c>
-      <c r="BL61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>1000052454</v>
-      </c>
-      <c r="B62">
-        <v>2021047242</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>5</v>
-      </c>
-      <c r="E62" s="1">
-        <v>44785.247916666667</v>
-      </c>
-      <c r="F62" s="1">
-        <v>44840.27847222222</v>
-      </c>
-      <c r="G62">
-        <v>1321</v>
-      </c>
-      <c r="H62">
-        <v>325.94</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0.2467</v>
-      </c>
-      <c r="J62">
-        <v>131</v>
-      </c>
-      <c r="K62" s="2">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62" s="2">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>476364</v>
-      </c>
-      <c r="O62">
-        <v>694318</v>
-      </c>
-      <c r="P62">
-        <v>2708</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="Y62">
-        <v>0</v>
-      </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
-      <c r="AF62">
-        <v>0</v>
-      </c>
-      <c r="AG62">
-        <v>0</v>
-      </c>
-      <c r="AH62">
-        <v>0</v>
-      </c>
-      <c r="AI62">
-        <v>0</v>
-      </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
-      <c r="AK62">
-        <v>0</v>
-      </c>
-      <c r="AL62">
-        <v>0</v>
-      </c>
-      <c r="AM62">
-        <v>0</v>
-      </c>
-      <c r="AN62">
-        <v>0</v>
-      </c>
-      <c r="AO62">
-        <v>0</v>
-      </c>
-      <c r="AP62">
-        <v>0</v>
-      </c>
-      <c r="AQ62">
-        <v>0</v>
-      </c>
-      <c r="AR62">
-        <v>0</v>
-      </c>
-      <c r="AS62">
-        <v>0</v>
-      </c>
-      <c r="AT62">
-        <v>0</v>
-      </c>
-      <c r="AU62">
-        <v>0</v>
-      </c>
-      <c r="AV62">
-        <v>0</v>
-      </c>
-      <c r="AW62">
-        <v>0</v>
-      </c>
-      <c r="AX62">
-        <v>0</v>
-      </c>
-      <c r="AY62">
-        <v>0</v>
-      </c>
-      <c r="AZ62">
-        <v>0</v>
-      </c>
-      <c r="BA62">
-        <v>0</v>
-      </c>
-      <c r="BB62">
-        <v>0</v>
-      </c>
-      <c r="BC62">
-        <v>0</v>
-      </c>
-      <c r="BD62">
-        <v>0</v>
-      </c>
-      <c r="BE62">
-        <v>0</v>
-      </c>
-      <c r="BF62">
-        <v>0</v>
-      </c>
-      <c r="BG62">
-        <v>0</v>
-      </c>
-      <c r="BH62">
-        <v>0</v>
-      </c>
-      <c r="BI62">
-        <v>0</v>
-      </c>
-      <c r="BJ62">
-        <v>0</v>
-      </c>
-      <c r="BK62">
-        <v>0</v>
-      </c>
-      <c r="BL62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>1000055813</v>
-      </c>
-      <c r="B63">
-        <v>2022016712</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1">
-        <v>44826.3125</v>
-      </c>
-      <c r="F63" s="1">
-        <v>44834.252083333333</v>
-      </c>
-      <c r="G63">
-        <v>191</v>
-      </c>
-      <c r="H63">
-        <v>1.89</v>
-      </c>
-      <c r="I63" s="2">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63" s="2">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63" s="2">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>57</v>
-      </c>
-      <c r="O63">
-        <v>560</v>
-      </c>
-      <c r="P63">
-        <v>1239</v>
-      </c>
-      <c r="Q63">
-        <v>2963</v>
-      </c>
-      <c r="R63">
-        <v>1409</v>
-      </c>
-      <c r="S63">
-        <v>370</v>
-      </c>
-      <c r="T63">
-        <v>5</v>
-      </c>
-      <c r="U63">
-        <v>184</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <v>0</v>
-      </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
-      <c r="AI63">
-        <v>0</v>
-      </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
-      <c r="AK63">
-        <v>0</v>
-      </c>
-      <c r="AL63">
-        <v>0</v>
-      </c>
-      <c r="AM63">
-        <v>0</v>
-      </c>
-      <c r="AN63">
-        <v>0</v>
-      </c>
-      <c r="AO63">
-        <v>0</v>
-      </c>
-      <c r="AP63">
-        <v>0</v>
-      </c>
-      <c r="AQ63">
-        <v>0</v>
-      </c>
-      <c r="AR63">
-        <v>0</v>
-      </c>
-      <c r="AS63">
-        <v>0</v>
-      </c>
-      <c r="AT63">
-        <v>0</v>
-      </c>
-      <c r="AU63">
-        <v>0</v>
-      </c>
-      <c r="AV63">
-        <v>0</v>
-      </c>
-      <c r="AW63">
-        <v>0</v>
-      </c>
-      <c r="AX63">
-        <v>0</v>
-      </c>
-      <c r="AY63">
-        <v>0</v>
-      </c>
-      <c r="AZ63">
-        <v>0</v>
-      </c>
-      <c r="BA63">
-        <v>0</v>
-      </c>
-      <c r="BB63">
-        <v>0</v>
-      </c>
-      <c r="BC63">
-        <v>0</v>
-      </c>
-      <c r="BD63">
-        <v>0</v>
-      </c>
-      <c r="BE63">
-        <v>0</v>
-      </c>
-      <c r="BF63">
-        <v>0</v>
-      </c>
-      <c r="BG63">
-        <v>0</v>
-      </c>
-      <c r="BH63">
-        <v>0</v>
-      </c>
-      <c r="BI63">
-        <v>0</v>
-      </c>
-      <c r="BJ63">
-        <v>0</v>
-      </c>
-      <c r="BK63">
-        <v>0</v>
-      </c>
-      <c r="BL63">
         <v>0</v>
       </c>
     </row>
